--- a/테이블명세서_v1.xlsx
+++ b/테이블명세서_v1.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\spring\wherego\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sinsu\OneDrive\바탕 화면\Workspace\wherego\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE712E11-2FA2-4C76-9DAA-87FB45CF2A63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8040"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="638" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="202">
   <si>
     <t>테이블 명세서</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -218,14 +219,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>regip</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>아이피</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>ordercomplete</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -254,26 +247,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>height</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>board</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>게시판 테이블</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>weight</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>몸무게</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>테이블명</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -382,10 +355,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>1:일반 2:실버 3:골드</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>cate2</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -450,14 +419,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>ordDelivery</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>배송비</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>addr1</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -658,26 +619,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>color</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>색</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>recipAddr2</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>size</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>사이즈</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>message</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -710,10 +655,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>CHAR(1)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>등록일</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -874,146 +815,18 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>company</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>제조사</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>구매자 키</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>status</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>혼용율</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>구매자 몸무게</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>origin</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>원산지</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>색상</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>구매한 제품 색상</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>thick</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>두께</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>구매한 제품 사이즈</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>flex</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>신축성</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>사진리뷰</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>through</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>비침</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>lining</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>안감</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>mdate</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>제조일</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>group</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>분류</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>공지사항, Q&amp;A, 이벤트</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>제목</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>색깔</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>parent</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>부모번호</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Q&amp;A</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>email</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>글쓴이</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>comment</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>답변여부</t>
+    <t>1:일반 2:판매자 3:관리자</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="9">
     <font>
       <sz val="11"/>
@@ -1097,7 +910,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -1299,13 +1112,74 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1351,113 +1225,167 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1738,11 +1666,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AJ59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:AJ1048576"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15:D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1756,88 +1684,88 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:36">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
       <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="E1" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="22"/>
+      <c r="F1" s="50"/>
       <c r="H1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="25" t="s">
+      <c r="I1" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="26"/>
-      <c r="K1" s="26"/>
-      <c r="L1" s="26"/>
-      <c r="M1" s="26"/>
-      <c r="N1" s="26"/>
-      <c r="O1" s="26"/>
-      <c r="P1" s="27"/>
+      <c r="J1" s="48"/>
+      <c r="K1" s="48"/>
+      <c r="L1" s="48"/>
+      <c r="M1" s="48"/>
+      <c r="N1" s="48"/>
+      <c r="O1" s="48"/>
+      <c r="P1" s="49"/>
       <c r="R1" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="S1" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="T1" s="26"/>
-      <c r="U1" s="26"/>
-      <c r="V1" s="26"/>
-      <c r="W1" s="26"/>
-      <c r="X1" s="26"/>
-      <c r="Y1" s="26"/>
-      <c r="Z1" s="27"/>
+        <v>55</v>
+      </c>
+      <c r="S1" s="47" t="s">
+        <v>56</v>
+      </c>
+      <c r="T1" s="48"/>
+      <c r="U1" s="48"/>
+      <c r="V1" s="48"/>
+      <c r="W1" s="48"/>
+      <c r="X1" s="48"/>
+      <c r="Y1" s="48"/>
+      <c r="Z1" s="49"/>
       <c r="AB1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="AC1" s="25" t="s">
-        <v>50</v>
-      </c>
-      <c r="AD1" s="26"/>
-      <c r="AE1" s="26"/>
-      <c r="AF1" s="26"/>
-      <c r="AG1" s="26"/>
-      <c r="AH1" s="26"/>
-      <c r="AI1" s="26"/>
-      <c r="AJ1" s="27"/>
+      <c r="AC1" s="47" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD1" s="48"/>
+      <c r="AE1" s="48"/>
+      <c r="AF1" s="48"/>
+      <c r="AG1" s="48"/>
+      <c r="AH1" s="48"/>
+      <c r="AI1" s="48"/>
+      <c r="AJ1" s="49"/>
     </row>
     <row r="2" spans="1:36">
-      <c r="A2" s="24"/>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
+      <c r="A2" s="44"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="44"/>
       <c r="D2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="22" t="s">
+      <c r="E2" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="22"/>
+      <c r="F2" s="50"/>
       <c r="H2" s="3" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="J2" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="J2" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="21"/>
-      <c r="L2" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="M2" s="21"/>
+      <c r="K2" s="43"/>
+      <c r="L2" s="42" t="s">
+        <v>59</v>
+      </c>
+      <c r="M2" s="43"/>
       <c r="N2" s="4" t="s">
         <v>11</v>
       </c>
       <c r="O2" s="4" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="P2" s="5" t="s">
         <v>12</v>
@@ -1846,44 +1774,44 @@
         <v>7</v>
       </c>
       <c r="S2" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="T2" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="T2" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="U2" s="21"/>
-      <c r="V2" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="W2" s="21"/>
+      <c r="U2" s="43"/>
+      <c r="V2" s="42" t="s">
+        <v>59</v>
+      </c>
+      <c r="W2" s="43"/>
       <c r="X2" s="4" t="s">
         <v>11</v>
       </c>
       <c r="Y2" s="4" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="Z2" s="5" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="AB2" s="3" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="AC2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="AD2" s="20" t="s">
+      <c r="AD2" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="AE2" s="21"/>
-      <c r="AF2" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="AG2" s="21"/>
+      <c r="AE2" s="43"/>
+      <c r="AF2" s="42" t="s">
+        <v>59</v>
+      </c>
+      <c r="AG2" s="43"/>
       <c r="AH2" s="4" t="s">
         <v>11</v>
       </c>
       <c r="AI2" s="4" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="AJ2" s="5" t="s">
         <v>12</v>
@@ -1893,31 +1821,31 @@
       <c r="A3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="50" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="22"/>
+      <c r="C3" s="50"/>
       <c r="D3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="23">
+      <c r="E3" s="51">
         <v>45187</v>
       </c>
-      <c r="F3" s="22"/>
+      <c r="F3" s="50"/>
       <c r="H3" s="6" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="I3" s="7" t="s">
         <v>17</v>
       </c>
       <c r="J3" s="7" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="K3" s="7"/>
-      <c r="L3" s="20"/>
-      <c r="M3" s="21"/>
+      <c r="L3" s="42"/>
+      <c r="M3" s="43"/>
       <c r="N3" s="8" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="O3" s="8" t="s">
         <v>19</v>
@@ -1927,14 +1855,14 @@
         <v>37</v>
       </c>
       <c r="S3" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="T3" s="18" t="s">
-        <v>73</v>
-      </c>
-      <c r="U3" s="19"/>
-      <c r="V3" s="20"/>
-      <c r="W3" s="21"/>
+        <v>65</v>
+      </c>
+      <c r="T3" s="38" t="s">
+        <v>66</v>
+      </c>
+      <c r="U3" s="39"/>
+      <c r="V3" s="42"/>
+      <c r="W3" s="43"/>
       <c r="X3" s="8" t="s">
         <v>18</v>
       </c>
@@ -1943,22 +1871,22 @@
       </c>
       <c r="Z3" s="5"/>
       <c r="AB3" s="6" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="AC3" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="AD3" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="AD3" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="AE3" s="19"/>
-      <c r="AF3" s="20"/>
-      <c r="AG3" s="21"/>
+      <c r="AE3" s="39"/>
+      <c r="AF3" s="42"/>
+      <c r="AG3" s="43"/>
       <c r="AH3" s="8" t="s">
         <v>18</v>
       </c>
       <c r="AI3" s="8" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="AJ3" s="5"/>
     </row>
@@ -1966,51 +1894,51 @@
       <c r="A4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="22"/>
+      <c r="C4" s="50"/>
       <c r="D4" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="22" t="s">
+      <c r="E4" s="50" t="s">
         <v>23</v>
       </c>
-      <c r="F4" s="22"/>
+      <c r="F4" s="50"/>
       <c r="H4" s="6" t="s">
         <v>24</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="K4" s="7"/>
-      <c r="L4" s="20"/>
-      <c r="M4" s="21"/>
+      <c r="L4" s="42"/>
+      <c r="M4" s="43"/>
       <c r="N4" s="9" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="O4" s="7"/>
       <c r="P4" s="5"/>
       <c r="R4" s="11" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="S4" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="T4" s="28" t="s">
-        <v>81</v>
-      </c>
-      <c r="U4" s="29"/>
-      <c r="V4" s="16"/>
-      <c r="W4" s="17"/>
+        <v>73</v>
+      </c>
+      <c r="T4" s="40" t="s">
+        <v>74</v>
+      </c>
+      <c r="U4" s="41"/>
+      <c r="V4" s="45"/>
+      <c r="W4" s="46"/>
       <c r="X4" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="Y4" s="30" t="s">
-        <v>82</v>
+      <c r="Y4" s="19" t="s">
+        <v>75</v>
       </c>
       <c r="Z4" s="14"/>
       <c r="AB4" s="6" t="s">
@@ -2020,13 +1948,13 @@
         <v>17</v>
       </c>
       <c r="AD4" s="7" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="AE4" s="7"/>
-      <c r="AF4" s="18" t="s">
-        <v>83</v>
-      </c>
-      <c r="AG4" s="19"/>
+      <c r="AF4" s="38" t="s">
+        <v>76</v>
+      </c>
+      <c r="AG4" s="39"/>
       <c r="AH4" s="9" t="s">
         <v>36</v>
       </c>
@@ -2041,11 +1969,11 @@
         <v>27</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="K5" s="7"/>
-      <c r="L5" s="20"/>
-      <c r="M5" s="21"/>
+      <c r="L5" s="42"/>
+      <c r="M5" s="43"/>
       <c r="N5" s="9" t="s">
         <v>18</v>
       </c>
@@ -2059,14 +1987,14 @@
       <c r="AC5" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="AD5" s="18" t="s">
-        <v>85</v>
-      </c>
-      <c r="AE5" s="19"/>
-      <c r="AF5" s="18" t="s">
-        <v>86</v>
-      </c>
-      <c r="AG5" s="19"/>
+      <c r="AD5" s="38" t="s">
+        <v>78</v>
+      </c>
+      <c r="AE5" s="39"/>
+      <c r="AF5" s="38" t="s">
+        <v>79</v>
+      </c>
+      <c r="AG5" s="39"/>
       <c r="AH5" s="9" t="s">
         <v>36</v>
       </c>
@@ -2074,62 +2002,62 @@
       <c r="AJ5" s="5"/>
     </row>
     <row r="6" spans="1:36">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="15"/>
-      <c r="C6" s="15" t="s">
+      <c r="B6" s="52"/>
+      <c r="C6" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15" t="s">
+      <c r="D6" s="52"/>
+      <c r="E6" s="52" t="s">
         <v>29</v>
       </c>
-      <c r="F6" s="15"/>
+      <c r="F6" s="52"/>
       <c r="H6" s="6" t="s">
         <v>30</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="J6" s="18" t="s">
-        <v>88</v>
-      </c>
-      <c r="K6" s="19"/>
-      <c r="L6" s="18" t="s">
-        <v>89</v>
-      </c>
-      <c r="M6" s="19"/>
+        <v>80</v>
+      </c>
+      <c r="J6" s="38" t="s">
+        <v>81</v>
+      </c>
+      <c r="K6" s="39"/>
+      <c r="L6" s="38" t="s">
+        <v>201</v>
+      </c>
+      <c r="M6" s="39"/>
       <c r="N6" s="9">
         <v>1</v>
       </c>
       <c r="O6" s="7"/>
       <c r="P6" s="5"/>
       <c r="R6" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="S6" s="25" t="s">
-        <v>90</v>
-      </c>
-      <c r="T6" s="26"/>
-      <c r="U6" s="26"/>
-      <c r="V6" s="26"/>
-      <c r="W6" s="26"/>
-      <c r="X6" s="26"/>
-      <c r="Y6" s="26"/>
-      <c r="Z6" s="27"/>
+        <v>55</v>
+      </c>
+      <c r="S6" s="47" t="s">
+        <v>82</v>
+      </c>
+      <c r="T6" s="48"/>
+      <c r="U6" s="48"/>
+      <c r="V6" s="48"/>
+      <c r="W6" s="48"/>
+      <c r="X6" s="48"/>
+      <c r="Y6" s="48"/>
+      <c r="Z6" s="49"/>
       <c r="AB6" s="6" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="AC6" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="AD6" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="AD6" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="AE6" s="19"/>
-      <c r="AF6" s="20"/>
-      <c r="AG6" s="21"/>
+      <c r="AE6" s="39"/>
+      <c r="AF6" s="42"/>
+      <c r="AG6" s="43"/>
       <c r="AH6" s="9">
         <v>0</v>
       </c>
@@ -2137,70 +2065,70 @@
       <c r="AJ6" s="5"/>
     </row>
     <row r="7" spans="1:36">
-      <c r="A7" s="15" t="s">
+      <c r="A7" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="15"/>
-      <c r="C7" s="15" t="s">
+      <c r="B7" s="52"/>
+      <c r="C7" s="52" t="s">
         <v>31</v>
       </c>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
+      <c r="D7" s="52"/>
+      <c r="E7" s="52"/>
+      <c r="F7" s="52"/>
       <c r="H7" s="6" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="J7" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="J7" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="K7" s="19"/>
-      <c r="L7" s="18" t="s">
-        <v>95</v>
-      </c>
-      <c r="M7" s="19"/>
+      <c r="K7" s="39"/>
+      <c r="L7" s="38" t="s">
+        <v>87</v>
+      </c>
+      <c r="M7" s="39"/>
       <c r="N7" s="9">
         <v>0</v>
       </c>
       <c r="O7" s="7"/>
       <c r="P7" s="5"/>
       <c r="R7" s="3" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="S7" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="T7" s="20" t="s">
+      <c r="T7" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="U7" s="21"/>
-      <c r="V7" s="20" t="s">
-        <v>96</v>
-      </c>
-      <c r="W7" s="21"/>
+      <c r="U7" s="43"/>
+      <c r="V7" s="42" t="s">
+        <v>88</v>
+      </c>
+      <c r="W7" s="43"/>
       <c r="X7" s="4" t="s">
         <v>11</v>
       </c>
       <c r="Y7" s="4" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="Z7" s="5" t="s">
         <v>12</v>
       </c>
       <c r="AB7" s="6" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="AC7" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="AD7" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="AD7" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="AE7" s="19"/>
-      <c r="AF7" s="20"/>
-      <c r="AG7" s="21"/>
+      <c r="AE7" s="39"/>
+      <c r="AF7" s="42"/>
+      <c r="AG7" s="43"/>
       <c r="AH7" s="9">
         <v>0</v>
       </c>
@@ -2208,28 +2136,28 @@
       <c r="AJ7" s="5"/>
     </row>
     <row r="8" spans="1:36">
-      <c r="A8" s="15" t="s">
+      <c r="A8" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="B8" s="15"/>
-      <c r="C8" s="15" t="s">
+      <c r="B8" s="52"/>
+      <c r="C8" s="52" t="s">
         <v>34</v>
       </c>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
+      <c r="D8" s="52"/>
+      <c r="E8" s="52"/>
+      <c r="F8" s="52"/>
       <c r="H8" s="6" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="I8" s="7" t="s">
         <v>35</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="K8" s="7"/>
-      <c r="L8" s="20"/>
-      <c r="M8" s="21"/>
+      <c r="L8" s="42"/>
+      <c r="M8" s="43"/>
       <c r="N8" s="9" t="s">
         <v>36</v>
       </c>
@@ -2239,14 +2167,14 @@
         <v>37</v>
       </c>
       <c r="S8" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="T8" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="T8" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="U8" s="19"/>
-      <c r="V8" s="20"/>
-      <c r="W8" s="21"/>
+      <c r="U8" s="39"/>
+      <c r="V8" s="42"/>
+      <c r="W8" s="43"/>
       <c r="X8" s="8" t="s">
         <v>18</v>
       </c>
@@ -2255,17 +2183,17 @@
       </c>
       <c r="Z8" s="5"/>
       <c r="AB8" s="6" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="AC8" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="AD8" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="AD8" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="AE8" s="19"/>
-      <c r="AF8" s="20"/>
-      <c r="AG8" s="21"/>
+      <c r="AE8" s="39"/>
+      <c r="AF8" s="42"/>
+      <c r="AG8" s="43"/>
       <c r="AH8" s="9">
         <v>0</v>
       </c>
@@ -2273,16 +2201,16 @@
       <c r="AJ8" s="5"/>
     </row>
     <row r="9" spans="1:36">
-      <c r="A9" s="15" t="s">
+      <c r="A9" s="52" t="s">
         <v>37</v>
       </c>
-      <c r="B9" s="15"/>
-      <c r="C9" s="15" t="s">
+      <c r="B9" s="52"/>
+      <c r="C9" s="52" t="s">
         <v>38</v>
       </c>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
+      <c r="D9" s="52"/>
+      <c r="E9" s="52"/>
+      <c r="F9" s="52"/>
       <c r="H9" s="6" t="s">
         <v>39</v>
       </c>
@@ -2293,44 +2221,44 @@
         <v>41</v>
       </c>
       <c r="K9" s="7"/>
-      <c r="L9" s="20"/>
-      <c r="M9" s="21"/>
+      <c r="L9" s="42"/>
+      <c r="M9" s="43"/>
       <c r="N9" s="9" t="s">
         <v>36</v>
       </c>
       <c r="O9" s="7"/>
       <c r="P9" s="5"/>
       <c r="R9" s="6" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="S9" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="T9" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="U9" s="19"/>
-      <c r="V9" s="20"/>
-      <c r="W9" s="21"/>
+        <v>96</v>
+      </c>
+      <c r="T9" s="38" t="s">
+        <v>74</v>
+      </c>
+      <c r="U9" s="39"/>
+      <c r="V9" s="42"/>
+      <c r="W9" s="43"/>
       <c r="X9" s="9" t="s">
         <v>18</v>
       </c>
       <c r="Y9" s="8" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="Z9" s="5"/>
       <c r="AB9" s="6" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="AC9" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="AD9" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="AD9" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="AE9" s="19"/>
-      <c r="AF9" s="20"/>
-      <c r="AG9" s="21"/>
+      <c r="AE9" s="16"/>
+      <c r="AF9" s="17"/>
+      <c r="AG9" s="18"/>
       <c r="AH9" s="9">
         <v>0</v>
       </c>
@@ -2338,18 +2266,18 @@
       <c r="AJ9" s="5"/>
     </row>
     <row r="10" spans="1:36" ht="17.25" thickBot="1">
-      <c r="A10" s="15" t="s">
+      <c r="A10" s="52" t="s">
         <v>42</v>
       </c>
-      <c r="B10" s="15"/>
-      <c r="C10" s="15" t="s">
+      <c r="B10" s="52"/>
+      <c r="C10" s="52" t="s">
         <v>43</v>
       </c>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15"/>
+      <c r="D10" s="52"/>
+      <c r="E10" s="52"/>
+      <c r="F10" s="52"/>
       <c r="H10" s="6" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="I10" s="7" t="s">
         <v>40</v>
@@ -2358,42 +2286,42 @@
         <v>41</v>
       </c>
       <c r="K10" s="7"/>
-      <c r="L10" s="20"/>
-      <c r="M10" s="21"/>
+      <c r="L10" s="42"/>
+      <c r="M10" s="43"/>
       <c r="N10" s="9" t="s">
         <v>36</v>
       </c>
       <c r="O10" s="7"/>
       <c r="P10" s="5"/>
       <c r="R10" s="11" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="S10" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="T10" s="40" t="s">
+        <v>74</v>
+      </c>
+      <c r="U10" s="41"/>
+      <c r="V10" s="45"/>
+      <c r="W10" s="46"/>
+      <c r="X10" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y10" s="12"/>
+      <c r="Z10" s="20"/>
+      <c r="AB10" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="T10" s="28" t="s">
-        <v>81</v>
-      </c>
-      <c r="U10" s="29"/>
-      <c r="V10" s="16"/>
-      <c r="W10" s="17"/>
-      <c r="X10" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="Y10" s="12"/>
-      <c r="Z10" s="31"/>
-      <c r="AB10" s="6" t="s">
-        <v>110</v>
-      </c>
       <c r="AC10" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="AD10" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="AD10" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="AE10" s="19"/>
-      <c r="AF10" s="20"/>
-      <c r="AG10" s="21"/>
+      <c r="AE10" s="16"/>
+      <c r="AF10" s="17"/>
+      <c r="AG10" s="18"/>
       <c r="AH10" s="9">
         <v>0</v>
       </c>
@@ -2401,45 +2329,45 @@
       <c r="AJ10" s="5"/>
     </row>
     <row r="11" spans="1:36" ht="17.25" thickBot="1">
-      <c r="A11" s="15" t="s">
+      <c r="A11" s="52" t="s">
         <v>44</v>
       </c>
-      <c r="B11" s="15"/>
-      <c r="C11" s="15" t="s">
+      <c r="B11" s="52"/>
+      <c r="C11" s="52" t="s">
         <v>45</v>
       </c>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
+      <c r="D11" s="52"/>
+      <c r="E11" s="52"/>
+      <c r="F11" s="52"/>
       <c r="H11" s="6" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="I11" s="7" t="s">
         <v>40</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="K11" s="7"/>
-      <c r="L11" s="20"/>
-      <c r="M11" s="21"/>
+      <c r="L11" s="42"/>
+      <c r="M11" s="43"/>
       <c r="N11" s="9" t="s">
         <v>36</v>
       </c>
       <c r="O11" s="7"/>
       <c r="P11" s="5"/>
       <c r="AB11" s="6" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="AC11" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="AD11" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="AD11" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="AE11" s="19"/>
-      <c r="AF11" s="20"/>
-      <c r="AG11" s="21"/>
+      <c r="AE11" s="16"/>
+      <c r="AF11" s="17"/>
+      <c r="AG11" s="18"/>
       <c r="AH11" s="9">
         <v>0</v>
       </c>
@@ -2447,28 +2375,28 @@
       <c r="AJ11" s="5"/>
     </row>
     <row r="12" spans="1:36">
-      <c r="A12" s="15" t="s">
+      <c r="A12" s="52" t="s">
         <v>46</v>
       </c>
-      <c r="B12" s="15"/>
-      <c r="C12" s="15" t="s">
+      <c r="B12" s="52"/>
+      <c r="C12" s="52" t="s">
         <v>47</v>
       </c>
-      <c r="D12" s="15"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="15"/>
+      <c r="D12" s="52"/>
+      <c r="E12" s="52"/>
+      <c r="F12" s="52"/>
       <c r="H12" s="6" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="I12" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="J12" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="K12" s="7"/>
-      <c r="L12" s="20"/>
-      <c r="M12" s="21"/>
+        <v>51</v>
+      </c>
+      <c r="J12" s="38" t="s">
+        <v>52</v>
+      </c>
+      <c r="K12" s="39"/>
+      <c r="L12" s="42"/>
+      <c r="M12" s="43"/>
       <c r="N12" s="9" t="s">
         <v>18</v>
       </c>
@@ -2477,60 +2405,52 @@
       <c r="R12" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="S12" s="25" t="s">
-        <v>116</v>
-      </c>
-      <c r="T12" s="26"/>
-      <c r="U12" s="26"/>
-      <c r="V12" s="26"/>
-      <c r="W12" s="26"/>
-      <c r="X12" s="26"/>
-      <c r="Y12" s="26"/>
-      <c r="Z12" s="27"/>
+      <c r="S12" s="47" t="s">
+        <v>106</v>
+      </c>
+      <c r="T12" s="48"/>
+      <c r="U12" s="48"/>
+      <c r="V12" s="48"/>
+      <c r="W12" s="48"/>
+      <c r="X12" s="48"/>
+      <c r="Y12" s="48"/>
+      <c r="Z12" s="49"/>
       <c r="AB12" s="6" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="AC12" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="AD12" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="AE12" s="19"/>
-      <c r="AF12" s="20"/>
-      <c r="AG12" s="21"/>
-      <c r="AH12" s="9">
-        <v>0</v>
+        <v>110</v>
+      </c>
+      <c r="AD12" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="AE12" s="16"/>
+      <c r="AF12" s="17"/>
+      <c r="AG12" s="18"/>
+      <c r="AH12" s="8" t="s">
+        <v>18</v>
       </c>
       <c r="AI12" s="7"/>
       <c r="AJ12" s="5"/>
     </row>
     <row r="13" spans="1:36">
-      <c r="A13" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="B13" s="15"/>
-      <c r="C13" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="15"/>
-      <c r="H13" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="I13" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="J13" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="K13" s="19"/>
-      <c r="L13" s="20"/>
-      <c r="M13" s="21"/>
-      <c r="N13" s="9" t="s">
-        <v>18</v>
-      </c>
+      <c r="A13" s="52" t="s">
+        <v>48</v>
+      </c>
+      <c r="B13" s="52"/>
+      <c r="C13" s="52" t="s">
+        <v>49</v>
+      </c>
+      <c r="D13" s="52"/>
+      <c r="E13" s="52"/>
+      <c r="F13" s="52"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="38"/>
+      <c r="K13" s="39"/>
+      <c r="L13" s="42"/>
+      <c r="M13" s="43"/>
+      <c r="N13" s="9"/>
       <c r="O13" s="7"/>
       <c r="P13" s="5"/>
       <c r="R13" s="3" t="s">
@@ -2539,35 +2459,35 @@
       <c r="S13" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="T13" s="20" t="s">
+      <c r="T13" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="U13" s="21"/>
-      <c r="V13" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="W13" s="21"/>
+      <c r="U13" s="43"/>
+      <c r="V13" s="42" t="s">
+        <v>59</v>
+      </c>
+      <c r="W13" s="43"/>
       <c r="X13" s="4" t="s">
         <v>11</v>
       </c>
       <c r="Y13" s="4" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="Z13" s="5" t="s">
         <v>12</v>
       </c>
       <c r="AB13" s="6" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="AC13" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="AD13" s="18" t="s">
-        <v>121</v>
-      </c>
-      <c r="AE13" s="19"/>
-      <c r="AF13" s="20"/>
-      <c r="AG13" s="21"/>
+        <v>35</v>
+      </c>
+      <c r="AD13" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="AE13" s="16"/>
+      <c r="AF13" s="17"/>
+      <c r="AG13" s="18"/>
       <c r="AH13" s="8" t="s">
         <v>18</v>
       </c>
@@ -2575,45 +2495,37 @@
       <c r="AJ13" s="5"/>
     </row>
     <row r="14" spans="1:36">
-      <c r="A14" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="B14" s="15"/>
-      <c r="C14" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
-      <c r="H14" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="I14" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>41</v>
-      </c>
+      <c r="A14" s="52" t="s">
+        <v>53</v>
+      </c>
+      <c r="B14" s="52"/>
+      <c r="C14" s="52" t="s">
+        <v>54</v>
+      </c>
+      <c r="D14" s="52"/>
+      <c r="E14" s="52"/>
+      <c r="F14" s="52"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
       <c r="K14" s="7"/>
-      <c r="L14" s="20"/>
-      <c r="M14" s="21"/>
-      <c r="N14" s="9" t="s">
-        <v>36</v>
-      </c>
+      <c r="L14" s="42"/>
+      <c r="M14" s="43"/>
+      <c r="N14" s="9"/>
       <c r="O14" s="7"/>
       <c r="P14" s="5"/>
-      <c r="R14" s="32" t="s">
-        <v>122</v>
-      </c>
-      <c r="S14" s="33" t="s">
-        <v>72</v>
-      </c>
-      <c r="T14" s="18" t="s">
+      <c r="R14" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="S14" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="T14" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="U14" s="19"/>
-      <c r="V14" s="20"/>
-      <c r="W14" s="21"/>
+      <c r="U14" s="39"/>
+      <c r="V14" s="42"/>
+      <c r="W14" s="43"/>
       <c r="X14" s="8" t="s">
         <v>18</v>
       </c>
@@ -2622,17 +2534,17 @@
       </c>
       <c r="Z14" s="5"/>
       <c r="AB14" s="6" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="AC14" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="AD14" s="18" t="s">
-        <v>124</v>
-      </c>
-      <c r="AE14" s="19"/>
-      <c r="AF14" s="20"/>
-      <c r="AG14" s="21"/>
+        <v>116</v>
+      </c>
+      <c r="AD14" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="AE14" s="7"/>
+      <c r="AF14" s="17"/>
+      <c r="AG14" s="18"/>
       <c r="AH14" s="8" t="s">
         <v>18</v>
       </c>
@@ -2640,62 +2552,50 @@
       <c r="AJ14" s="5"/>
     </row>
     <row r="15" spans="1:36" ht="17.25" thickBot="1">
-      <c r="A15" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="B15" s="15"/>
-      <c r="C15" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="D15" s="15"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="15"/>
-      <c r="H15" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="I15" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="J15" s="12" t="s">
-        <v>41</v>
-      </c>
+      <c r="A15" s="52"/>
+      <c r="B15" s="52"/>
+      <c r="C15" s="52"/>
+      <c r="D15" s="52"/>
+      <c r="E15" s="52"/>
+      <c r="F15" s="52"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="12"/>
       <c r="K15" s="12"/>
-      <c r="L15" s="16"/>
-      <c r="M15" s="17"/>
-      <c r="N15" s="13" t="s">
-        <v>36</v>
-      </c>
+      <c r="L15" s="45"/>
+      <c r="M15" s="46"/>
+      <c r="N15" s="13"/>
       <c r="O15" s="12"/>
       <c r="P15" s="14"/>
-      <c r="R15" s="32" t="s">
+      <c r="R15" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="S15" s="33" t="s">
+      <c r="S15" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="T15" s="33" t="s">
-        <v>70</v>
-      </c>
-      <c r="U15" s="33"/>
-      <c r="V15" s="20"/>
-      <c r="W15" s="21"/>
+      <c r="T15" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="U15" s="22"/>
+      <c r="V15" s="42"/>
+      <c r="W15" s="43"/>
       <c r="X15" s="8" t="s">
         <v>18</v>
       </c>
       <c r="Y15" s="8"/>
       <c r="Z15" s="5"/>
       <c r="AB15" s="6" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="AC15" s="7" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="AD15" s="7" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="AE15" s="7"/>
-      <c r="AF15" s="20"/>
-      <c r="AG15" s="21"/>
+      <c r="AF15" s="17"/>
+      <c r="AG15" s="18"/>
       <c r="AH15" s="8" t="s">
         <v>18</v>
       </c>
@@ -2703,91 +2603,91 @@
       <c r="AJ15" s="5"/>
     </row>
     <row r="16" spans="1:36" ht="17.25" thickBot="1">
-      <c r="R16" s="32" t="s">
-        <v>127</v>
-      </c>
-      <c r="S16" s="33" t="s">
-        <v>128</v>
-      </c>
-      <c r="T16" s="18" t="s">
+      <c r="R16" s="21" t="s">
+        <v>117</v>
+      </c>
+      <c r="S16" s="22" t="s">
+        <v>118</v>
+      </c>
+      <c r="T16" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="U16" s="19"/>
-      <c r="V16" s="20"/>
-      <c r="W16" s="21"/>
+      <c r="U16" s="39"/>
+      <c r="V16" s="42"/>
+      <c r="W16" s="43"/>
       <c r="X16" s="9" t="s">
         <v>18</v>
       </c>
       <c r="Y16" s="8" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="Z16" s="5"/>
       <c r="AB16" s="6" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="AC16" s="7" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="AD16" s="7" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="AE16" s="7"/>
-      <c r="AF16" s="20"/>
-      <c r="AG16" s="21"/>
+      <c r="AF16" s="17"/>
+      <c r="AG16" s="18"/>
       <c r="AH16" s="8" t="s">
         <v>18</v>
       </c>
       <c r="AI16" s="7"/>
-      <c r="AJ16" s="34"/>
+      <c r="AJ16" s="23"/>
     </row>
     <row r="17" spans="8:36">
       <c r="H17" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I17" s="25" t="s">
+      <c r="I17" s="47" t="s">
         <v>33</v>
       </c>
-      <c r="J17" s="26"/>
-      <c r="K17" s="26"/>
-      <c r="L17" s="26"/>
-      <c r="M17" s="26"/>
-      <c r="N17" s="26"/>
-      <c r="O17" s="26"/>
-      <c r="P17" s="27"/>
-      <c r="R17" s="32" t="s">
-        <v>131</v>
-      </c>
-      <c r="S17" s="33" t="s">
-        <v>132</v>
-      </c>
-      <c r="T17" s="33" t="s">
-        <v>70</v>
-      </c>
-      <c r="U17" s="33"/>
-      <c r="V17" s="20"/>
-      <c r="W17" s="21"/>
+      <c r="J17" s="48"/>
+      <c r="K17" s="48"/>
+      <c r="L17" s="48"/>
+      <c r="M17" s="48"/>
+      <c r="N17" s="48"/>
+      <c r="O17" s="48"/>
+      <c r="P17" s="49"/>
+      <c r="R17" s="21" t="s">
+        <v>121</v>
+      </c>
+      <c r="S17" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="T17" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="U17" s="22"/>
+      <c r="V17" s="42"/>
+      <c r="W17" s="43"/>
       <c r="X17" s="9" t="s">
         <v>18</v>
       </c>
       <c r="Y17" s="4"/>
       <c r="Z17" s="5"/>
       <c r="AB17" s="6" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="AC17" s="7" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="AD17" s="7" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="AE17" s="7"/>
-      <c r="AF17" s="20"/>
-      <c r="AG17" s="21"/>
+      <c r="AF17" s="17"/>
+      <c r="AG17" s="18"/>
       <c r="AH17" s="8" t="s">
         <v>18</v>
       </c>
       <c r="AI17" s="7"/>
-      <c r="AJ17" s="34"/>
+      <c r="AJ17" s="23"/>
     </row>
     <row r="18" spans="8:36">
       <c r="H18" s="3" t="s">
@@ -2796,537 +2696,513 @@
       <c r="I18" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J18" s="20" t="s">
+      <c r="J18" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="K18" s="21"/>
-      <c r="L18" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="M18" s="21"/>
+      <c r="K18" s="43"/>
+      <c r="L18" s="42" t="s">
+        <v>59</v>
+      </c>
+      <c r="M18" s="43"/>
       <c r="N18" s="4" t="s">
         <v>11</v>
       </c>
       <c r="O18" s="4" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="P18" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="R18" s="32" t="s">
-        <v>135</v>
-      </c>
-      <c r="S18" s="33" t="s">
-        <v>136</v>
-      </c>
-      <c r="T18" s="18" t="s">
+      <c r="R18" s="21" t="s">
+        <v>125</v>
+      </c>
+      <c r="S18" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="T18" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="U18" s="19"/>
-      <c r="V18" s="20"/>
-      <c r="W18" s="21"/>
+      <c r="U18" s="39"/>
+      <c r="V18" s="42"/>
+      <c r="W18" s="43"/>
       <c r="X18" s="9">
         <v>0</v>
       </c>
       <c r="Y18" s="4"/>
       <c r="Z18" s="5"/>
       <c r="AB18" s="6" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="AC18" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="AD18" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="AE18" s="7"/>
-      <c r="AF18" s="20"/>
-      <c r="AG18" s="21"/>
+        <v>132</v>
+      </c>
+      <c r="AD18" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="AE18" s="16"/>
+      <c r="AF18" s="17"/>
+      <c r="AG18" s="18"/>
       <c r="AH18" s="8" t="s">
         <v>18</v>
       </c>
       <c r="AI18" s="7"/>
-      <c r="AJ18" s="34"/>
+      <c r="AJ18" s="23"/>
     </row>
     <row r="19" spans="8:36">
       <c r="H19" s="6" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="I19" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="J19" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="J19" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="K19" s="19"/>
-      <c r="L19" s="20"/>
-      <c r="M19" s="21"/>
+      <c r="K19" s="39"/>
+      <c r="L19" s="42"/>
+      <c r="M19" s="43"/>
       <c r="N19" s="8" t="s">
         <v>18</v>
       </c>
       <c r="O19" s="8" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="P19" s="5"/>
-      <c r="R19" s="32" t="s">
-        <v>139</v>
-      </c>
-      <c r="S19" s="33" t="s">
-        <v>140</v>
-      </c>
-      <c r="T19" s="18" t="s">
+      <c r="R19" s="21" t="s">
+        <v>129</v>
+      </c>
+      <c r="S19" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="T19" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="U19" s="19"/>
-      <c r="V19" s="20"/>
-      <c r="W19" s="21"/>
+      <c r="U19" s="39"/>
+      <c r="V19" s="42"/>
+      <c r="W19" s="43"/>
       <c r="X19" s="9">
         <v>0</v>
       </c>
       <c r="Y19" s="8"/>
       <c r="Z19" s="5"/>
       <c r="AB19" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="AC19" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="AD19" s="18" t="s">
-        <v>121</v>
-      </c>
-      <c r="AE19" s="19"/>
-      <c r="AF19" s="20"/>
-      <c r="AG19" s="21"/>
+        <v>135</v>
+      </c>
+      <c r="AC19" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD19" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="AE19" s="16"/>
+      <c r="AF19" s="17"/>
+      <c r="AG19" s="18"/>
       <c r="AH19" s="8" t="s">
         <v>18</v>
       </c>
       <c r="AI19" s="7"/>
-      <c r="AJ19" s="34"/>
+      <c r="AJ19" s="23"/>
     </row>
     <row r="20" spans="8:36">
       <c r="H20" s="6" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="I20" s="7" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="K20" s="7"/>
-      <c r="L20" s="20"/>
-      <c r="M20" s="21"/>
+      <c r="L20" s="42"/>
+      <c r="M20" s="43"/>
       <c r="N20" s="9" t="s">
         <v>18</v>
       </c>
       <c r="O20" s="7"/>
       <c r="P20" s="5"/>
-      <c r="R20" s="32" t="s">
-        <v>143</v>
-      </c>
-      <c r="S20" s="33" t="s">
-        <v>144</v>
-      </c>
-      <c r="T20" s="18" t="s">
+      <c r="R20" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="S20" s="22" t="s">
+        <v>134</v>
+      </c>
+      <c r="T20" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="U20" s="19"/>
-      <c r="V20" s="20"/>
-      <c r="W20" s="21"/>
+      <c r="U20" s="39"/>
+      <c r="V20" s="42"/>
+      <c r="W20" s="43"/>
       <c r="X20" s="9">
         <v>0</v>
       </c>
       <c r="Y20" s="8"/>
       <c r="Z20" s="5"/>
       <c r="AB20" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="AC20" s="35" t="s">
-        <v>35</v>
-      </c>
-      <c r="AD20" s="18" t="s">
-        <v>124</v>
-      </c>
-      <c r="AE20" s="19"/>
-      <c r="AF20" s="20"/>
-      <c r="AG20" s="21"/>
+        <v>139</v>
+      </c>
+      <c r="AC20" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="AD20" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="AE20" s="7"/>
+      <c r="AF20" s="17"/>
+      <c r="AG20" s="18"/>
       <c r="AH20" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="AI20" s="35"/>
-      <c r="AJ20" s="36"/>
+      <c r="AI20" s="24"/>
+      <c r="AJ20" s="25"/>
     </row>
     <row r="21" spans="8:36">
       <c r="H21" s="6" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="I21" s="7" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="K21" s="7"/>
-      <c r="L21" s="20"/>
-      <c r="M21" s="21"/>
+      <c r="L21" s="42"/>
+      <c r="M21" s="43"/>
       <c r="N21" s="9" t="s">
         <v>18</v>
       </c>
       <c r="O21" s="7"/>
       <c r="P21" s="5"/>
-      <c r="R21" s="37" t="s">
-        <v>93</v>
-      </c>
-      <c r="S21" s="35" t="s">
-        <v>148</v>
-      </c>
-      <c r="T21" s="18" t="s">
+      <c r="R21" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="S21" s="24" t="s">
+        <v>138</v>
+      </c>
+      <c r="T21" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="U21" s="19"/>
-      <c r="V21" s="20"/>
-      <c r="W21" s="21"/>
+      <c r="U21" s="39"/>
+      <c r="V21" s="42"/>
+      <c r="W21" s="43"/>
       <c r="X21" s="9">
         <v>0</v>
       </c>
-      <c r="Y21" s="35"/>
-      <c r="Z21" s="36"/>
+      <c r="Y21" s="24"/>
+      <c r="Z21" s="25"/>
       <c r="AB21" s="6" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="AC21" s="7" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="AD21" s="7" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="AE21" s="7"/>
-      <c r="AF21" s="20"/>
-      <c r="AG21" s="21"/>
+      <c r="AF21" s="17"/>
+      <c r="AG21" s="18"/>
       <c r="AH21" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="AI21" s="35"/>
-      <c r="AJ21" s="36"/>
+      <c r="AI21" s="24"/>
+      <c r="AJ21" s="25"/>
     </row>
     <row r="22" spans="8:36">
       <c r="H22" s="6" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="I22" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="J22" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="K22" s="19"/>
-      <c r="L22" s="20"/>
-      <c r="M22" s="21"/>
+        <v>142</v>
+      </c>
+      <c r="J22" s="38" t="s">
+        <v>74</v>
+      </c>
+      <c r="K22" s="39"/>
+      <c r="L22" s="42"/>
+      <c r="M22" s="43"/>
       <c r="N22" s="9" t="s">
         <v>18</v>
       </c>
       <c r="O22" s="8" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="P22" s="5"/>
-      <c r="R22" s="32" t="s">
-        <v>153</v>
-      </c>
-      <c r="S22" s="33" t="s">
-        <v>154</v>
-      </c>
-      <c r="T22" s="18" t="s">
+      <c r="R22" s="21" t="s">
+        <v>143</v>
+      </c>
+      <c r="S22" s="22" t="s">
+        <v>144</v>
+      </c>
+      <c r="T22" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="U22" s="19"/>
-      <c r="V22" s="20"/>
-      <c r="W22" s="21"/>
+      <c r="U22" s="39"/>
+      <c r="V22" s="42"/>
+      <c r="W22" s="43"/>
       <c r="X22" s="9">
         <v>1</v>
       </c>
       <c r="Y22" s="7"/>
       <c r="Z22" s="5"/>
       <c r="AB22" s="6" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="AC22" s="7" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="AD22" s="7" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="AE22" s="7"/>
-      <c r="AF22" s="20"/>
-      <c r="AG22" s="21"/>
+      <c r="AF22" s="17"/>
+      <c r="AG22" s="18"/>
       <c r="AH22" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="AI22" s="35"/>
-      <c r="AJ22" s="36"/>
+      <c r="AI22" s="24"/>
+      <c r="AJ22" s="25"/>
     </row>
     <row r="23" spans="8:36">
       <c r="H23" s="6" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="I23" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="J23" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="K23" s="19"/>
-      <c r="L23" s="20"/>
-      <c r="M23" s="21"/>
+        <v>147</v>
+      </c>
+      <c r="J23" s="38" t="s">
+        <v>74</v>
+      </c>
+      <c r="K23" s="39"/>
+      <c r="L23" s="42"/>
+      <c r="M23" s="43"/>
       <c r="N23" s="9" t="s">
         <v>18</v>
       </c>
       <c r="O23" s="8" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="P23" s="5"/>
-      <c r="R23" s="32" t="s">
-        <v>158</v>
-      </c>
-      <c r="S23" s="33" t="s">
-        <v>159</v>
-      </c>
-      <c r="T23" s="33" t="s">
-        <v>70</v>
-      </c>
-      <c r="U23" s="33"/>
-      <c r="V23" s="20"/>
-      <c r="W23" s="21"/>
+      <c r="R23" s="21" t="s">
+        <v>153</v>
+      </c>
+      <c r="S23" s="22" t="s">
+        <v>154</v>
+      </c>
+      <c r="T23" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="U23" s="22"/>
+      <c r="V23" s="42"/>
+      <c r="W23" s="43"/>
       <c r="X23" s="9" t="s">
         <v>18</v>
       </c>
       <c r="Y23" s="7"/>
       <c r="Z23" s="5"/>
       <c r="AB23" s="6" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
       <c r="AC23" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="AD23" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="AE23" s="7"/>
-      <c r="AF23" s="20"/>
-      <c r="AG23" s="21"/>
+      <c r="AD23" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="AE23" s="16"/>
+      <c r="AF23" s="17"/>
+      <c r="AG23" s="18"/>
       <c r="AH23" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="AI23" s="35"/>
-      <c r="AJ23" s="36"/>
-    </row>
-    <row r="24" spans="8:36">
+      <c r="AI23" s="24"/>
+      <c r="AJ23" s="25"/>
+    </row>
+    <row r="24" spans="8:36" ht="17.25" thickBot="1">
       <c r="H24" s="6" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="I24" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="J24" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="J24" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="K24" s="19"/>
-      <c r="L24" s="20"/>
-      <c r="M24" s="21"/>
+      <c r="K24" s="39"/>
+      <c r="L24" s="42"/>
+      <c r="M24" s="43"/>
       <c r="N24" s="9">
         <v>0</v>
       </c>
       <c r="O24" s="7"/>
       <c r="P24" s="5"/>
-      <c r="R24" s="32" t="s">
-        <v>161</v>
-      </c>
-      <c r="S24" s="33" t="s">
-        <v>162</v>
-      </c>
-      <c r="T24" s="33" t="s">
-        <v>70</v>
-      </c>
-      <c r="U24" s="33"/>
-      <c r="V24" s="20"/>
-      <c r="W24" s="21"/>
+      <c r="R24" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="S24" s="28" t="s">
+        <v>157</v>
+      </c>
+      <c r="T24" s="40" t="s">
+        <v>52</v>
+      </c>
+      <c r="U24" s="41"/>
+      <c r="V24" s="45"/>
+      <c r="W24" s="46"/>
       <c r="X24" s="9" t="s">
         <v>18</v>
       </c>
       <c r="Y24" s="7"/>
       <c r="Z24" s="5"/>
       <c r="AB24" s="6" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="AC24" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="AD24" s="18" t="s">
-        <v>165</v>
-      </c>
-      <c r="AE24" s="19"/>
-      <c r="AF24" s="20"/>
-      <c r="AG24" s="21"/>
+        <v>156</v>
+      </c>
+      <c r="AD24" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="AE24" s="16"/>
+      <c r="AF24" s="17"/>
+      <c r="AG24" s="18"/>
       <c r="AH24" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="AI24" s="35"/>
-      <c r="AJ24" s="36"/>
+      <c r="AI24" s="24"/>
+      <c r="AJ24" s="25"/>
     </row>
     <row r="25" spans="8:36">
       <c r="H25" s="6" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="I25" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="J25" s="18" t="s">
+        <v>152</v>
+      </c>
+      <c r="J25" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="K25" s="19"/>
-      <c r="L25" s="20"/>
-      <c r="M25" s="21"/>
+      <c r="K25" s="39"/>
+      <c r="L25" s="42"/>
+      <c r="M25" s="43"/>
       <c r="N25" s="9">
         <v>0</v>
       </c>
       <c r="O25" s="7"/>
       <c r="P25" s="5"/>
-      <c r="R25" s="32" t="s">
-        <v>167</v>
-      </c>
-      <c r="S25" s="33" t="s">
-        <v>168</v>
-      </c>
-      <c r="T25" s="33" t="s">
-        <v>70</v>
-      </c>
-      <c r="U25" s="33"/>
-      <c r="V25" s="20"/>
-      <c r="W25" s="21"/>
-      <c r="X25" s="9" t="s">
-        <v>18</v>
-      </c>
+      <c r="R25" s="21"/>
+      <c r="S25" s="22"/>
+      <c r="T25" s="22"/>
+      <c r="U25" s="22"/>
+      <c r="V25" s="42"/>
+      <c r="W25" s="43"/>
+      <c r="X25" s="9"/>
       <c r="Y25" s="7"/>
       <c r="Z25" s="5"/>
       <c r="AB25" s="6" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="AC25" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="AD25" s="18" t="s">
-        <v>171</v>
-      </c>
-      <c r="AE25" s="19"/>
-      <c r="AF25" s="20"/>
-      <c r="AG25" s="21"/>
-      <c r="AH25" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="AI25" s="35"/>
-      <c r="AJ25" s="36"/>
+        <v>159</v>
+      </c>
+      <c r="AD25" s="29" t="s">
+        <v>160</v>
+      </c>
+      <c r="AE25" s="30"/>
+      <c r="AF25" s="17"/>
+      <c r="AG25" s="18"/>
+      <c r="AH25" s="9">
+        <v>1</v>
+      </c>
+      <c r="AI25" s="24"/>
+      <c r="AJ25" s="25"/>
     </row>
     <row r="26" spans="8:36" ht="17.25" thickBot="1">
       <c r="H26" s="6" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="I26" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="J26" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="J26" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="K26" s="19"/>
-      <c r="L26" s="20"/>
-      <c r="M26" s="21"/>
+      <c r="K26" s="39"/>
+      <c r="L26" s="42"/>
+      <c r="M26" s="43"/>
       <c r="N26" s="9">
         <v>0</v>
       </c>
       <c r="O26" s="7"/>
       <c r="P26" s="5"/>
-      <c r="R26" s="38" t="s">
-        <v>52</v>
-      </c>
-      <c r="S26" s="39" t="s">
-        <v>172</v>
-      </c>
-      <c r="T26" s="28" t="s">
-        <v>54</v>
-      </c>
-      <c r="U26" s="29"/>
-      <c r="V26" s="16"/>
-      <c r="W26" s="17"/>
-      <c r="X26" s="13" t="s">
-        <v>18</v>
-      </c>
+      <c r="R26" s="27"/>
+      <c r="S26" s="28"/>
+      <c r="T26" s="40"/>
+      <c r="U26" s="41"/>
+      <c r="V26" s="45"/>
+      <c r="W26" s="46"/>
+      <c r="X26" s="13"/>
       <c r="Y26" s="12"/>
       <c r="Z26" s="14"/>
-      <c r="AB26" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="AC26" s="7" t="s">
-        <v>174</v>
+      <c r="AB26" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="AC26" s="12" t="s">
+        <v>162</v>
       </c>
       <c r="AD26" s="40" t="s">
-        <v>175</v>
+        <v>52</v>
       </c>
       <c r="AE26" s="41"/>
-      <c r="AF26" s="20"/>
-      <c r="AG26" s="21"/>
-      <c r="AH26" s="9">
-        <v>1</v>
-      </c>
-      <c r="AI26" s="35"/>
-      <c r="AJ26" s="36"/>
+      <c r="AF26" s="45"/>
+      <c r="AG26" s="46"/>
+      <c r="AH26" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="AI26" s="24"/>
+      <c r="AJ26" s="25"/>
     </row>
     <row r="27" spans="8:36" ht="17.25" thickBot="1">
       <c r="H27" s="6" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="I27" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="J27" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="J27" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="K27" s="19"/>
-      <c r="L27" s="20"/>
-      <c r="M27" s="21"/>
+      <c r="K27" s="39"/>
+      <c r="L27" s="42"/>
+      <c r="M27" s="43"/>
       <c r="N27" s="9">
         <v>0</v>
       </c>
       <c r="O27" s="7"/>
       <c r="P27" s="5"/>
-      <c r="AB27" s="11" t="s">
-        <v>176</v>
-      </c>
-      <c r="AC27" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="AD27" s="28" t="s">
-        <v>54</v>
-      </c>
-      <c r="AE27" s="29"/>
-      <c r="AF27" s="16"/>
-      <c r="AG27" s="17"/>
-      <c r="AH27" s="30" t="s">
-        <v>18</v>
-      </c>
+      <c r="AB27" s="11"/>
+      <c r="AC27" s="12"/>
+      <c r="AD27" s="40"/>
+      <c r="AE27" s="41"/>
+      <c r="AF27" s="45"/>
+      <c r="AG27" s="46"/>
+      <c r="AH27" s="19"/>
       <c r="AI27" s="12"/>
       <c r="AJ27" s="14"/>
     </row>
     <row r="28" spans="8:36">
       <c r="H28" s="6" t="s">
-        <v>178</v>
+        <v>163</v>
       </c>
       <c r="I28" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="J28" s="18" t="s">
+        <v>164</v>
+      </c>
+      <c r="J28" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="K28" s="19"/>
-      <c r="L28" s="20"/>
-      <c r="M28" s="21"/>
+      <c r="K28" s="39"/>
+      <c r="L28" s="42"/>
+      <c r="M28" s="43"/>
       <c r="N28" s="9">
         <v>0</v>
       </c>
@@ -3335,41 +3211,41 @@
       <c r="R28" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="S28" s="25" t="s">
+      <c r="S28" s="47" t="s">
         <v>44</v>
       </c>
-      <c r="T28" s="26"/>
-      <c r="U28" s="26"/>
-      <c r="V28" s="26"/>
-      <c r="W28" s="26"/>
-      <c r="X28" s="26"/>
-      <c r="Y28" s="26"/>
-      <c r="Z28" s="27"/>
-      <c r="AB28" s="42" t="s">
-        <v>169</v>
-      </c>
-      <c r="AC28" s="42"/>
-      <c r="AD28" s="42"/>
-      <c r="AE28" s="42"/>
-      <c r="AF28" s="42"/>
-      <c r="AG28" s="42"/>
-      <c r="AH28" s="42"/>
-      <c r="AI28" s="43"/>
-      <c r="AJ28" s="44"/>
+      <c r="T28" s="48"/>
+      <c r="U28" s="48"/>
+      <c r="V28" s="48"/>
+      <c r="W28" s="48"/>
+      <c r="X28" s="48"/>
+      <c r="Y28" s="48"/>
+      <c r="Z28" s="49"/>
+      <c r="AB28" s="31" t="s">
+        <v>155</v>
+      </c>
+      <c r="AC28" s="31"/>
+      <c r="AD28" s="31"/>
+      <c r="AE28" s="31"/>
+      <c r="AF28" s="31"/>
+      <c r="AG28" s="31"/>
+      <c r="AH28" s="31"/>
+      <c r="AI28" s="32"/>
+      <c r="AJ28" s="33"/>
     </row>
     <row r="29" spans="8:36">
       <c r="H29" s="6" t="s">
-        <v>180</v>
+        <v>165</v>
       </c>
       <c r="I29" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="J29" s="18" t="s">
+        <v>166</v>
+      </c>
+      <c r="J29" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="K29" s="19"/>
-      <c r="L29" s="20"/>
-      <c r="M29" s="21"/>
+      <c r="K29" s="39"/>
+      <c r="L29" s="42"/>
+      <c r="M29" s="43"/>
       <c r="N29" s="9">
         <v>0</v>
       </c>
@@ -3381,145 +3257,145 @@
       <c r="S29" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="T29" s="20" t="s">
+      <c r="T29" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="U29" s="21"/>
-      <c r="V29" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="W29" s="21"/>
+      <c r="U29" s="43"/>
+      <c r="V29" s="42" t="s">
+        <v>59</v>
+      </c>
+      <c r="W29" s="43"/>
       <c r="X29" s="4" t="s">
         <v>11</v>
       </c>
       <c r="Y29" s="4" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="Z29" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="AB29" s="43" t="s">
-        <v>182</v>
-      </c>
-      <c r="AC29" s="43"/>
-      <c r="AD29" s="43"/>
-      <c r="AE29" s="43"/>
-      <c r="AF29" s="43"/>
-      <c r="AG29" s="43"/>
-      <c r="AH29" s="43"/>
-      <c r="AI29" s="43"/>
-      <c r="AJ29" s="44"/>
+      <c r="AB29" s="32" t="s">
+        <v>167</v>
+      </c>
+      <c r="AC29" s="32"/>
+      <c r="AD29" s="32"/>
+      <c r="AE29" s="32"/>
+      <c r="AF29" s="32"/>
+      <c r="AG29" s="32"/>
+      <c r="AH29" s="32"/>
+      <c r="AI29" s="32"/>
+      <c r="AJ29" s="33"/>
     </row>
     <row r="30" spans="8:36">
       <c r="H30" s="6" t="s">
-        <v>183</v>
+        <v>168</v>
       </c>
       <c r="I30" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="J30" s="18" t="s">
+        <v>169</v>
+      </c>
+      <c r="J30" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="K30" s="19"/>
-      <c r="L30" s="20"/>
-      <c r="M30" s="21"/>
+      <c r="K30" s="39"/>
+      <c r="L30" s="42"/>
+      <c r="M30" s="43"/>
       <c r="N30" s="9">
         <v>0</v>
       </c>
       <c r="O30" s="7"/>
       <c r="P30" s="5"/>
       <c r="R30" s="6" t="s">
-        <v>185</v>
+        <v>170</v>
       </c>
       <c r="S30" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="T30" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="T30" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="U30" s="19"/>
-      <c r="V30" s="20"/>
-      <c r="W30" s="21"/>
+      <c r="U30" s="39"/>
+      <c r="V30" s="42"/>
+      <c r="W30" s="43"/>
       <c r="X30" s="8" t="s">
         <v>18</v>
       </c>
       <c r="Y30" s="8" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="Z30" s="5"/>
-      <c r="AB30" s="43" t="s">
-        <v>173</v>
-      </c>
-      <c r="AC30" s="43"/>
-      <c r="AD30" s="43"/>
-      <c r="AE30" s="43"/>
-      <c r="AF30" s="43"/>
-      <c r="AG30" s="43"/>
-      <c r="AH30" s="43"/>
-      <c r="AI30" s="43"/>
-      <c r="AJ30" s="44"/>
+      <c r="AB30" s="32" t="s">
+        <v>158</v>
+      </c>
+      <c r="AC30" s="32"/>
+      <c r="AD30" s="32"/>
+      <c r="AE30" s="32"/>
+      <c r="AF30" s="32"/>
+      <c r="AG30" s="32"/>
+      <c r="AH30" s="32"/>
+      <c r="AI30" s="32"/>
+      <c r="AJ30" s="33"/>
     </row>
     <row r="31" spans="8:36">
       <c r="H31" s="6" t="s">
-        <v>186</v>
+        <v>171</v>
       </c>
       <c r="I31" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="J31" s="18" t="s">
+        <v>172</v>
+      </c>
+      <c r="J31" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="K31" s="19"/>
-      <c r="L31" s="20"/>
-      <c r="M31" s="21"/>
+      <c r="K31" s="39"/>
+      <c r="L31" s="42"/>
+      <c r="M31" s="43"/>
       <c r="N31" s="9">
         <v>0</v>
       </c>
       <c r="O31" s="7"/>
-      <c r="P31" s="34"/>
+      <c r="P31" s="23"/>
       <c r="R31" s="6" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="S31" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="T31" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="T31" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="U31" s="19"/>
-      <c r="V31" s="20"/>
-      <c r="W31" s="21"/>
+      <c r="U31" s="39"/>
+      <c r="V31" s="42"/>
+      <c r="W31" s="43"/>
       <c r="X31" s="9" t="s">
         <v>18</v>
       </c>
       <c r="Y31" s="8" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="Z31" s="5"/>
       <c r="AB31" s="10" t="s">
-        <v>188</v>
-      </c>
-      <c r="AI31" s="43"/>
-      <c r="AJ31" s="44"/>
+        <v>173</v>
+      </c>
+      <c r="AI31" s="32"/>
+      <c r="AJ31" s="33"/>
     </row>
     <row r="32" spans="8:36">
       <c r="H32" s="6" t="s">
-        <v>189</v>
+        <v>174</v>
       </c>
       <c r="I32" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="J32" s="18" t="s">
+        <v>175</v>
+      </c>
+      <c r="J32" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="K32" s="19"/>
-      <c r="L32" s="20"/>
-      <c r="M32" s="21"/>
+      <c r="K32" s="39"/>
+      <c r="L32" s="42"/>
+      <c r="M32" s="43"/>
       <c r="N32" s="9">
         <v>0</v>
       </c>
       <c r="O32" s="7"/>
-      <c r="P32" s="34"/>
+      <c r="P32" s="23"/>
       <c r="R32" s="6" t="s">
         <v>16</v>
       </c>
@@ -3527,171 +3403,171 @@
         <v>17</v>
       </c>
       <c r="T32" s="7" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="U32" s="7"/>
-      <c r="V32" s="20"/>
-      <c r="W32" s="21"/>
+      <c r="V32" s="42"/>
+      <c r="W32" s="43"/>
       <c r="X32" s="9" t="s">
         <v>18</v>
       </c>
       <c r="Y32" s="8" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="Z32" s="5"/>
-      <c r="AB32" s="45"/>
+      <c r="AB32" s="34"/>
     </row>
     <row r="33" spans="8:36" ht="17.25" thickBot="1">
       <c r="H33" s="6" t="s">
-        <v>167</v>
+        <v>153</v>
       </c>
       <c r="I33" s="7" t="s">
-        <v>191</v>
+        <v>176</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="K33" s="7"/>
-      <c r="L33" s="20"/>
-      <c r="M33" s="21"/>
+      <c r="L33" s="42"/>
+      <c r="M33" s="43"/>
       <c r="N33" s="9" t="s">
         <v>36</v>
       </c>
       <c r="O33" s="7"/>
-      <c r="P33" s="34"/>
+      <c r="P33" s="23"/>
       <c r="R33" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="S33" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="T33" s="40" t="s">
         <v>52</v>
       </c>
-      <c r="S33" s="12" t="s">
-        <v>172</v>
-      </c>
-      <c r="T33" s="28" t="s">
-        <v>54</v>
-      </c>
-      <c r="U33" s="29"/>
-      <c r="V33" s="16"/>
-      <c r="W33" s="17"/>
+      <c r="U33" s="41"/>
+      <c r="V33" s="45"/>
+      <c r="W33" s="46"/>
       <c r="X33" s="13" t="s">
         <v>18</v>
       </c>
       <c r="Y33" s="12"/>
       <c r="Z33" s="14"/>
-      <c r="AC33" s="43"/>
-      <c r="AD33" s="43"/>
-      <c r="AE33" s="43"/>
-      <c r="AF33" s="43"/>
-      <c r="AG33" s="43"/>
-      <c r="AH33" s="43"/>
+      <c r="AC33" s="32"/>
+      <c r="AD33" s="32"/>
+      <c r="AE33" s="32"/>
+      <c r="AF33" s="32"/>
+      <c r="AG33" s="32"/>
+      <c r="AH33" s="32"/>
     </row>
     <row r="34" spans="8:36" ht="17.25" thickBot="1">
       <c r="H34" s="6" t="s">
-        <v>192</v>
+        <v>177</v>
       </c>
       <c r="I34" s="7" t="s">
-        <v>193</v>
+        <v>178</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="K34" s="7"/>
-      <c r="L34" s="20"/>
-      <c r="M34" s="21"/>
+      <c r="L34" s="42"/>
+      <c r="M34" s="43"/>
       <c r="N34" s="9" t="s">
         <v>36</v>
       </c>
       <c r="O34" s="7"/>
-      <c r="P34" s="34"/>
-      <c r="AB34" s="46"/>
-      <c r="AC34" s="46"/>
-      <c r="AD34" s="46"/>
-      <c r="AE34" s="46"/>
-      <c r="AF34" s="46"/>
-      <c r="AG34" s="46"/>
-      <c r="AH34" s="46"/>
-      <c r="AI34" s="47"/>
+      <c r="P34" s="23"/>
+      <c r="AB34" s="35"/>
+      <c r="AC34" s="35"/>
+      <c r="AD34" s="35"/>
+      <c r="AE34" s="35"/>
+      <c r="AF34" s="35"/>
+      <c r="AG34" s="35"/>
+      <c r="AH34" s="35"/>
+      <c r="AI34" s="36"/>
     </row>
     <row r="35" spans="8:36">
       <c r="H35" s="6" t="s">
-        <v>194</v>
+        <v>179</v>
       </c>
       <c r="I35" s="7" t="s">
-        <v>195</v>
+        <v>180</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="K35" s="7"/>
-      <c r="L35" s="20"/>
-      <c r="M35" s="21"/>
+      <c r="L35" s="42"/>
+      <c r="M35" s="43"/>
       <c r="N35" s="9" t="s">
         <v>36</v>
       </c>
       <c r="O35" s="7"/>
-      <c r="P35" s="34"/>
+      <c r="P35" s="23"/>
       <c r="R35" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="S35" s="25" t="s">
+      <c r="S35" s="47" t="s">
         <v>46</v>
       </c>
-      <c r="T35" s="26"/>
-      <c r="U35" s="26"/>
-      <c r="V35" s="26"/>
-      <c r="W35" s="26"/>
-      <c r="X35" s="26"/>
-      <c r="Y35" s="26"/>
-      <c r="Z35" s="27"/>
+      <c r="T35" s="48"/>
+      <c r="U35" s="48"/>
+      <c r="V35" s="48"/>
+      <c r="W35" s="48"/>
+      <c r="X35" s="48"/>
+      <c r="Y35" s="48"/>
+      <c r="Z35" s="49"/>
       <c r="AB35" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="AC35" s="25" t="s">
-        <v>55</v>
-      </c>
-      <c r="AD35" s="26"/>
-      <c r="AE35" s="26"/>
-      <c r="AF35" s="26"/>
-      <c r="AG35" s="26"/>
-      <c r="AH35" s="26"/>
-      <c r="AI35" s="26"/>
-      <c r="AJ35" s="27"/>
+      <c r="AC35" s="47" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD35" s="48"/>
+      <c r="AE35" s="48"/>
+      <c r="AF35" s="48"/>
+      <c r="AG35" s="48"/>
+      <c r="AH35" s="48"/>
+      <c r="AI35" s="48"/>
+      <c r="AJ35" s="49"/>
     </row>
     <row r="36" spans="8:36">
       <c r="H36" s="6" t="s">
-        <v>196</v>
+        <v>181</v>
       </c>
       <c r="I36" s="7" t="s">
-        <v>197</v>
+        <v>182</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="K36" s="7"/>
-      <c r="L36" s="20"/>
-      <c r="M36" s="21"/>
+      <c r="L36" s="42"/>
+      <c r="M36" s="43"/>
       <c r="N36" s="9" t="s">
         <v>36</v>
       </c>
       <c r="O36" s="7"/>
-      <c r="P36" s="34"/>
+      <c r="P36" s="23"/>
       <c r="R36" s="3" t="s">
         <v>7</v>
       </c>
       <c r="S36" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="T36" s="20" t="s">
+      <c r="T36" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="U36" s="21"/>
-      <c r="V36" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="W36" s="21"/>
+      <c r="U36" s="43"/>
+      <c r="V36" s="42" t="s">
+        <v>59</v>
+      </c>
+      <c r="W36" s="43"/>
       <c r="X36" s="4" t="s">
         <v>11</v>
       </c>
       <c r="Y36" s="4" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="Z36" s="5" t="s">
         <v>12</v>
@@ -3702,19 +3578,19 @@
       <c r="AC36" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="AD36" s="20" t="s">
+      <c r="AD36" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="AE36" s="21"/>
-      <c r="AF36" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="AG36" s="21"/>
+      <c r="AE36" s="43"/>
+      <c r="AF36" s="42" t="s">
+        <v>59</v>
+      </c>
+      <c r="AG36" s="43"/>
       <c r="AH36" s="4" t="s">
         <v>11</v>
       </c>
       <c r="AI36" s="4" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="AJ36" s="5" t="s">
         <v>12</v>
@@ -3722,167 +3598,167 @@
     </row>
     <row r="37" spans="8:36">
       <c r="H37" s="6" t="s">
-        <v>198</v>
+        <v>183</v>
       </c>
       <c r="I37" s="7" t="s">
-        <v>199</v>
+        <v>184</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="K37" s="7"/>
-      <c r="L37" s="20"/>
-      <c r="M37" s="21"/>
+      <c r="L37" s="42"/>
+      <c r="M37" s="43"/>
       <c r="N37" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="O37" s="33"/>
-      <c r="P37" s="34"/>
+      <c r="O37" s="22"/>
+      <c r="P37" s="23"/>
       <c r="R37" s="6" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="S37" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="T37" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="T37" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="U37" s="19"/>
-      <c r="V37" s="20"/>
-      <c r="W37" s="21"/>
+      <c r="U37" s="39"/>
+      <c r="V37" s="42"/>
+      <c r="W37" s="43"/>
       <c r="X37" s="8" t="s">
         <v>18</v>
       </c>
       <c r="Y37" s="8" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="Z37" s="5"/>
       <c r="AB37" s="6" t="s">
-        <v>200</v>
+        <v>185</v>
       </c>
       <c r="AC37" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="AD37" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="AD37" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="AE37" s="19"/>
-      <c r="AF37" s="20"/>
-      <c r="AG37" s="21"/>
+      <c r="AE37" s="39"/>
+      <c r="AF37" s="42"/>
+      <c r="AG37" s="43"/>
       <c r="AH37" s="8" t="s">
         <v>18</v>
       </c>
       <c r="AI37" s="8" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="AJ37" s="5"/>
     </row>
     <row r="38" spans="8:36">
       <c r="H38" s="6" t="s">
-        <v>201</v>
+        <v>186</v>
       </c>
       <c r="I38" s="7" t="s">
-        <v>202</v>
+        <v>187</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="K38" s="7"/>
-      <c r="L38" s="20"/>
-      <c r="M38" s="21"/>
+      <c r="L38" s="42"/>
+      <c r="M38" s="43"/>
       <c r="N38" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="O38" s="33"/>
-      <c r="P38" s="34"/>
+      <c r="O38" s="22"/>
+      <c r="P38" s="23"/>
       <c r="R38" s="6" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="S38" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="T38" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="T38" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="U38" s="19"/>
-      <c r="V38" s="20"/>
-      <c r="W38" s="21"/>
+      <c r="U38" s="39"/>
+      <c r="V38" s="42"/>
+      <c r="W38" s="43"/>
       <c r="X38" s="9" t="s">
         <v>18</v>
       </c>
       <c r="Y38" s="8" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="Z38" s="5"/>
       <c r="AB38" s="6" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="AC38" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="AD38" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="AD38" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="AE38" s="19"/>
-      <c r="AF38" s="20"/>
-      <c r="AG38" s="21"/>
+      <c r="AE38" s="39"/>
+      <c r="AF38" s="42"/>
+      <c r="AG38" s="43"/>
       <c r="AH38" s="9" t="s">
         <v>18</v>
       </c>
       <c r="AI38" s="8" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="AJ38" s="5"/>
     </row>
     <row r="39" spans="8:36">
-      <c r="H39" s="32" t="s">
-        <v>203</v>
-      </c>
-      <c r="I39" s="33" t="s">
-        <v>204</v>
+      <c r="H39" s="21" t="s">
+        <v>188</v>
+      </c>
+      <c r="I39" s="22" t="s">
+        <v>189</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="K39" s="7"/>
-      <c r="L39" s="20"/>
-      <c r="M39" s="21"/>
+      <c r="L39" s="42"/>
+      <c r="M39" s="43"/>
       <c r="N39" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="O39" s="33"/>
-      <c r="P39" s="34"/>
+      <c r="O39" s="22"/>
+      <c r="P39" s="23"/>
       <c r="R39" s="6" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="S39" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="T39" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="T39" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="U39" s="19"/>
-      <c r="V39" s="20"/>
-      <c r="W39" s="21"/>
+      <c r="U39" s="39"/>
+      <c r="V39" s="42"/>
+      <c r="W39" s="43"/>
       <c r="X39" s="9" t="s">
         <v>18</v>
       </c>
       <c r="Y39" s="7"/>
       <c r="Z39" s="5"/>
       <c r="AB39" s="6" t="s">
-        <v>205</v>
+        <v>190</v>
       </c>
       <c r="AC39" s="7" t="s">
         <v>27</v>
       </c>
       <c r="AD39" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="AE39" s="35"/>
+        <v>63</v>
+      </c>
+      <c r="AE39" s="24"/>
       <c r="AF39" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="AG39" s="35"/>
+        <v>191</v>
+      </c>
+      <c r="AG39" s="24"/>
       <c r="AH39" s="9" t="s">
         <v>18</v>
       </c>
@@ -3890,52 +3766,52 @@
       <c r="AJ39" s="5"/>
     </row>
     <row r="40" spans="8:36">
-      <c r="H40" s="32" t="s">
-        <v>207</v>
-      </c>
-      <c r="I40" s="33" t="s">
-        <v>208</v>
+      <c r="H40" s="21" t="s">
+        <v>192</v>
+      </c>
+      <c r="I40" s="22" t="s">
+        <v>193</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="K40" s="7"/>
-      <c r="L40" s="20"/>
-      <c r="M40" s="21"/>
+      <c r="L40" s="42"/>
+      <c r="M40" s="43"/>
       <c r="N40" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="O40" s="33"/>
-      <c r="P40" s="34"/>
+      <c r="O40" s="22"/>
+      <c r="P40" s="23"/>
       <c r="R40" s="6" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="S40" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="T40" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="T40" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="U40" s="19"/>
-      <c r="V40" s="20"/>
-      <c r="W40" s="21"/>
+      <c r="U40" s="39"/>
+      <c r="V40" s="42"/>
+      <c r="W40" s="43"/>
       <c r="X40" s="9" t="s">
         <v>18</v>
       </c>
       <c r="Y40" s="7"/>
       <c r="Z40" s="5"/>
       <c r="AB40" s="6" t="s">
-        <v>209</v>
+        <v>194</v>
       </c>
       <c r="AC40" s="7" t="s">
-        <v>210</v>
+        <v>195</v>
       </c>
       <c r="AD40" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="AE40" s="35"/>
-      <c r="AF40" s="20"/>
-      <c r="AG40" s="21"/>
+        <v>63</v>
+      </c>
+      <c r="AE40" s="24"/>
+      <c r="AF40" s="42"/>
+      <c r="AG40" s="43"/>
       <c r="AH40" s="9" t="s">
         <v>18</v>
       </c>
@@ -3943,54 +3819,54 @@
       <c r="AJ40" s="5"/>
     </row>
     <row r="41" spans="8:36">
-      <c r="H41" s="32" t="s">
-        <v>211</v>
-      </c>
-      <c r="I41" s="33" t="s">
-        <v>212</v>
+      <c r="H41" s="21" t="s">
+        <v>196</v>
+      </c>
+      <c r="I41" s="22" t="s">
+        <v>197</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="K41" s="7"/>
-      <c r="L41" s="20"/>
-      <c r="M41" s="21"/>
+      <c r="L41" s="42"/>
+      <c r="M41" s="43"/>
       <c r="N41" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="O41" s="33"/>
-      <c r="P41" s="34"/>
+      <c r="O41" s="22"/>
+      <c r="P41" s="23"/>
       <c r="R41" s="6" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="S41" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="T41" s="18" t="s">
+        <v>152</v>
+      </c>
+      <c r="T41" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="U41" s="19"/>
-      <c r="V41" s="20"/>
-      <c r="W41" s="21"/>
+      <c r="U41" s="39"/>
+      <c r="V41" s="42"/>
+      <c r="W41" s="43"/>
       <c r="X41" s="9">
         <v>0</v>
       </c>
       <c r="Y41" s="7"/>
       <c r="Z41" s="5"/>
       <c r="AB41" s="6" t="s">
-        <v>213</v>
+        <v>198</v>
       </c>
       <c r="AC41" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="AD41" s="18" t="s">
+        <v>172</v>
+      </c>
+      <c r="AD41" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="AE41" s="19"/>
-      <c r="AF41" s="18" t="s">
-        <v>214</v>
-      </c>
-      <c r="AG41" s="19"/>
+      <c r="AE41" s="39"/>
+      <c r="AF41" s="38" t="s">
+        <v>199</v>
+      </c>
+      <c r="AG41" s="39"/>
       <c r="AH41" s="9">
         <v>0</v>
       </c>
@@ -3998,872 +3874,437 @@
       <c r="AJ41" s="5"/>
     </row>
     <row r="42" spans="8:36">
-      <c r="H42" s="32" t="s">
-        <v>215</v>
-      </c>
-      <c r="I42" s="33" t="s">
-        <v>216</v>
-      </c>
-      <c r="J42" s="7" t="s">
-        <v>70</v>
-      </c>
+      <c r="H42" s="21"/>
+      <c r="I42" s="22"/>
+      <c r="J42" s="7"/>
       <c r="K42" s="7"/>
-      <c r="L42" s="20"/>
-      <c r="M42" s="21"/>
-      <c r="N42" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="O42" s="33"/>
-      <c r="P42" s="34"/>
+      <c r="L42" s="42"/>
+      <c r="M42" s="43"/>
+      <c r="N42" s="9"/>
+      <c r="O42" s="22"/>
+      <c r="P42" s="23"/>
       <c r="R42" s="6" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="S42" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="T42" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="T42" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="U42" s="19"/>
-      <c r="V42" s="20"/>
-      <c r="W42" s="21"/>
+      <c r="U42" s="39"/>
+      <c r="V42" s="42"/>
+      <c r="W42" s="43"/>
       <c r="X42" s="9">
         <v>0</v>
       </c>
       <c r="Y42" s="7"/>
       <c r="Z42" s="5"/>
       <c r="AB42" s="6" t="s">
-        <v>57</v>
+        <v>153</v>
       </c>
       <c r="AC42" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="AD42" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="AE42" s="19"/>
-      <c r="AF42" s="18" t="s">
-        <v>217</v>
-      </c>
-      <c r="AG42" s="19"/>
+        <v>200</v>
+      </c>
+      <c r="AD42" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="AE42" s="24"/>
+      <c r="AF42" s="42"/>
+      <c r="AG42" s="43"/>
       <c r="AH42" s="9" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="AI42" s="7"/>
       <c r="AJ42" s="5"/>
     </row>
     <row r="43" spans="8:36">
-      <c r="H43" s="32" t="s">
-        <v>218</v>
-      </c>
-      <c r="I43" s="33" t="s">
-        <v>219</v>
-      </c>
-      <c r="J43" s="7" t="s">
-        <v>41</v>
-      </c>
+      <c r="H43" s="21"/>
+      <c r="I43" s="22"/>
+      <c r="J43" s="7"/>
       <c r="K43" s="7"/>
-      <c r="L43" s="20"/>
-      <c r="M43" s="21"/>
-      <c r="N43" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="O43" s="33"/>
-      <c r="P43" s="34"/>
+      <c r="L43" s="42"/>
+      <c r="M43" s="43"/>
+      <c r="N43" s="9"/>
+      <c r="O43" s="22"/>
+      <c r="P43" s="23"/>
       <c r="R43" s="6" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="S43" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="T43" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="T43" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="U43" s="19"/>
-      <c r="V43" s="20"/>
-      <c r="W43" s="21"/>
+      <c r="U43" s="39"/>
+      <c r="V43" s="42"/>
+      <c r="W43" s="43"/>
       <c r="X43" s="9">
         <v>0</v>
       </c>
       <c r="Y43" s="7"/>
       <c r="Z43" s="5"/>
-      <c r="AB43" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="AC43" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="AD43" s="18" t="s">
+      <c r="AB43" s="61" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC43" s="62" t="s">
+        <v>157</v>
+      </c>
+      <c r="AD43" s="63" t="s">
+        <v>52</v>
+      </c>
+      <c r="AE43" s="64"/>
+      <c r="AF43" s="65"/>
+      <c r="AG43" s="66"/>
+      <c r="AH43" s="67" t="s">
+        <v>18</v>
+      </c>
+      <c r="AI43" s="62"/>
+      <c r="AJ43" s="68"/>
+    </row>
+    <row r="44" spans="8:36">
+      <c r="H44" s="21"/>
+      <c r="I44" s="22"/>
+      <c r="J44" s="7"/>
+      <c r="K44" s="7"/>
+      <c r="L44" s="42"/>
+      <c r="M44" s="43"/>
+      <c r="N44" s="9"/>
+      <c r="O44" s="22"/>
+      <c r="P44" s="23"/>
+      <c r="R44" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="S44" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="T44" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="AE43" s="19"/>
-      <c r="AF43" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="AG43" s="35"/>
-      <c r="AH43" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="AI43" s="7"/>
-      <c r="AJ43" s="5"/>
-    </row>
-    <row r="44" spans="8:36">
-      <c r="H44" s="32" t="s">
-        <v>221</v>
-      </c>
-      <c r="I44" s="33" t="s">
-        <v>222</v>
-      </c>
-      <c r="J44" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="K44" s="7"/>
-      <c r="L44" s="20"/>
-      <c r="M44" s="21"/>
-      <c r="N44" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="O44" s="33"/>
-      <c r="P44" s="34"/>
-      <c r="R44" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="S44" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="T44" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="U44" s="19"/>
-      <c r="V44" s="20"/>
-      <c r="W44" s="21"/>
+      <c r="U44" s="39"/>
+      <c r="V44" s="42"/>
+      <c r="W44" s="43"/>
       <c r="X44" s="9" t="s">
         <v>18</v>
       </c>
       <c r="Y44" s="7"/>
       <c r="Z44" s="5"/>
-      <c r="AB44" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="AC44" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="AD44" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="AE44" s="35"/>
-      <c r="AF44" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="AG44" s="35"/>
-      <c r="AH44" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="AI44" s="7"/>
-      <c r="AJ44" s="5"/>
+      <c r="AB44" s="57"/>
+      <c r="AC44" s="57"/>
+      <c r="AD44" s="57"/>
+      <c r="AE44" s="60"/>
+      <c r="AF44" s="57"/>
+      <c r="AG44" s="60"/>
+      <c r="AH44" s="59"/>
+      <c r="AI44" s="57"/>
+      <c r="AJ44" s="55"/>
     </row>
     <row r="45" spans="8:36" ht="17.25" thickBot="1">
-      <c r="H45" s="32" t="s">
-        <v>225</v>
-      </c>
-      <c r="I45" s="33" t="s">
-        <v>226</v>
-      </c>
-      <c r="J45" s="7" t="s">
-        <v>41</v>
-      </c>
+      <c r="H45" s="21"/>
+      <c r="I45" s="22"/>
+      <c r="J45" s="7"/>
       <c r="K45" s="7"/>
-      <c r="L45" s="20"/>
-      <c r="M45" s="21"/>
-      <c r="N45" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="O45" s="33"/>
-      <c r="P45" s="34"/>
+      <c r="L45" s="42"/>
+      <c r="M45" s="43"/>
+      <c r="N45" s="9"/>
+      <c r="O45" s="22"/>
+      <c r="P45" s="23"/>
       <c r="R45" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="S45" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="T45" s="40" t="s">
         <v>52</v>
       </c>
-      <c r="S45" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="T45" s="28" t="s">
-        <v>54</v>
-      </c>
-      <c r="U45" s="29"/>
-      <c r="V45" s="16"/>
-      <c r="W45" s="17"/>
+      <c r="U45" s="41"/>
+      <c r="V45" s="45"/>
+      <c r="W45" s="46"/>
       <c r="X45" s="13" t="s">
         <v>18</v>
       </c>
       <c r="Y45" s="12"/>
       <c r="Z45" s="14"/>
-      <c r="AB45" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="AC45" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="AD45" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="AE45" s="35"/>
-      <c r="AF45" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="AG45" s="35"/>
-      <c r="AH45" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="AI45" s="7"/>
-      <c r="AJ45" s="5"/>
+      <c r="AB45" s="57"/>
+      <c r="AC45" s="57"/>
+      <c r="AD45" s="57"/>
+      <c r="AE45" s="60"/>
+      <c r="AF45" s="57"/>
+      <c r="AG45" s="60"/>
+      <c r="AH45" s="59"/>
+      <c r="AI45" s="57"/>
+      <c r="AJ45" s="55"/>
     </row>
     <row r="46" spans="8:36">
-      <c r="H46" s="32" t="s">
-        <v>228</v>
-      </c>
-      <c r="I46" s="33" t="s">
-        <v>229</v>
-      </c>
-      <c r="J46" s="7" t="s">
-        <v>41</v>
-      </c>
+      <c r="H46" s="21"/>
+      <c r="I46" s="22"/>
+      <c r="J46" s="7"/>
       <c r="K46" s="7"/>
-      <c r="L46" s="20"/>
-      <c r="M46" s="21"/>
-      <c r="N46" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="O46" s="33"/>
-      <c r="P46" s="34"/>
-      <c r="AB46" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="AC46" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="AD46" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="AE46" s="35"/>
-      <c r="AF46" s="20"/>
-      <c r="AG46" s="21"/>
-      <c r="AH46" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="AI46" s="7"/>
-      <c r="AJ46" s="5"/>
-    </row>
-    <row r="47" spans="8:36" ht="17.25" thickBot="1">
-      <c r="H47" s="32" t="s">
-        <v>231</v>
-      </c>
-      <c r="I47" s="33" t="s">
-        <v>232</v>
-      </c>
-      <c r="J47" s="7" t="s">
-        <v>41</v>
-      </c>
+      <c r="L46" s="42"/>
+      <c r="M46" s="43"/>
+      <c r="N46" s="9"/>
+      <c r="O46" s="22"/>
+      <c r="P46" s="23"/>
+      <c r="AB46" s="57"/>
+      <c r="AC46" s="57"/>
+      <c r="AD46" s="57"/>
+      <c r="AE46" s="60"/>
+      <c r="AF46" s="56"/>
+      <c r="AG46" s="56"/>
+      <c r="AH46" s="59"/>
+      <c r="AI46" s="57"/>
+      <c r="AJ46" s="55"/>
+    </row>
+    <row r="47" spans="8:36">
+      <c r="H47" s="21"/>
+      <c r="I47" s="22"/>
+      <c r="J47" s="7"/>
       <c r="K47" s="7"/>
-      <c r="L47" s="20"/>
-      <c r="M47" s="21"/>
-      <c r="N47" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="O47" s="33"/>
-      <c r="P47" s="34"/>
-      <c r="AB47" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="AC47" s="12" t="s">
-        <v>172</v>
-      </c>
-      <c r="AD47" s="28" t="s">
-        <v>54</v>
-      </c>
-      <c r="AE47" s="29"/>
-      <c r="AF47" s="16"/>
-      <c r="AG47" s="17"/>
-      <c r="AH47" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="AI47" s="12"/>
-      <c r="AJ47" s="14"/>
-    </row>
-    <row r="48" spans="8:36" ht="17.25" thickBot="1">
-      <c r="H48" s="32" t="s">
-        <v>233</v>
-      </c>
-      <c r="I48" s="33" t="s">
-        <v>234</v>
-      </c>
-      <c r="J48" s="7" t="s">
-        <v>41</v>
-      </c>
+      <c r="L47" s="42"/>
+      <c r="M47" s="43"/>
+      <c r="N47" s="9"/>
+      <c r="O47" s="22"/>
+      <c r="P47" s="23"/>
+      <c r="AB47" s="57"/>
+      <c r="AC47" s="57"/>
+      <c r="AD47" s="54"/>
+      <c r="AE47" s="54"/>
+      <c r="AF47" s="56"/>
+      <c r="AG47" s="56"/>
+      <c r="AH47" s="59"/>
+      <c r="AI47" s="57"/>
+      <c r="AJ47" s="55"/>
+    </row>
+    <row r="48" spans="8:36">
+      <c r="H48" s="21"/>
+      <c r="I48" s="22"/>
+      <c r="J48" s="7"/>
       <c r="K48" s="7"/>
-      <c r="L48" s="20"/>
-      <c r="M48" s="21"/>
-      <c r="N48" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="O48" s="33"/>
-      <c r="P48" s="34"/>
+      <c r="L48" s="42"/>
+      <c r="M48" s="43"/>
+      <c r="N48" s="9"/>
+      <c r="O48" s="22"/>
+      <c r="P48" s="23"/>
     </row>
     <row r="49" spans="8:36">
-      <c r="H49" s="32" t="s">
-        <v>161</v>
-      </c>
-      <c r="I49" s="33" t="s">
-        <v>162</v>
-      </c>
-      <c r="J49" s="7" t="s">
-        <v>41</v>
-      </c>
+      <c r="H49" s="21"/>
+      <c r="I49" s="22"/>
+      <c r="J49" s="7"/>
       <c r="K49" s="7"/>
-      <c r="L49" s="20"/>
-      <c r="M49" s="21"/>
-      <c r="N49" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="O49" s="33"/>
-      <c r="P49" s="34"/>
-      <c r="AB49" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="AC49" s="25" t="s">
-        <v>58</v>
-      </c>
-      <c r="AD49" s="26"/>
-      <c r="AE49" s="26"/>
-      <c r="AF49" s="26"/>
-      <c r="AG49" s="26"/>
-      <c r="AH49" s="26"/>
-      <c r="AI49" s="26"/>
-      <c r="AJ49" s="27"/>
+      <c r="L49" s="42"/>
+      <c r="M49" s="43"/>
+      <c r="N49" s="9"/>
+      <c r="O49" s="22"/>
+      <c r="P49" s="23"/>
+      <c r="AB49" s="53"/>
+      <c r="AC49" s="54"/>
+      <c r="AD49" s="54"/>
+      <c r="AE49" s="54"/>
+      <c r="AF49" s="54"/>
+      <c r="AG49" s="54"/>
+      <c r="AH49" s="54"/>
+      <c r="AI49" s="54"/>
+      <c r="AJ49" s="54"/>
     </row>
     <row r="50" spans="8:36">
-      <c r="H50" s="32" t="s">
-        <v>235</v>
-      </c>
-      <c r="I50" s="33" t="s">
-        <v>236</v>
-      </c>
-      <c r="J50" s="7" t="s">
-        <v>54</v>
-      </c>
+      <c r="H50" s="21"/>
+      <c r="I50" s="22"/>
+      <c r="J50" s="7"/>
       <c r="K50" s="7"/>
-      <c r="L50" s="20"/>
-      <c r="M50" s="21"/>
-      <c r="N50" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="O50" s="33"/>
-      <c r="P50" s="34"/>
-      <c r="AB50" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="AC50" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="AD50" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="AE50" s="24"/>
-      <c r="AF50" s="24" t="s">
-        <v>66</v>
-      </c>
-      <c r="AG50" s="24"/>
-      <c r="AH50" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="AI50" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="AJ50" s="5" t="s">
-        <v>12</v>
-      </c>
+      <c r="L50" s="42"/>
+      <c r="M50" s="43"/>
+      <c r="N50" s="9"/>
+      <c r="O50" s="22"/>
+      <c r="P50" s="23"/>
+      <c r="AB50" s="55"/>
+      <c r="AC50" s="55"/>
+      <c r="AD50" s="56"/>
+      <c r="AE50" s="56"/>
+      <c r="AF50" s="56"/>
+      <c r="AG50" s="56"/>
+      <c r="AH50" s="55"/>
+      <c r="AI50" s="55"/>
+      <c r="AJ50" s="55"/>
     </row>
     <row r="51" spans="8:36" ht="17.25" thickBot="1">
-      <c r="H51" s="38" t="s">
-        <v>52</v>
-      </c>
-      <c r="I51" s="39" t="s">
-        <v>236</v>
-      </c>
-      <c r="J51" s="28" t="s">
-        <v>54</v>
-      </c>
-      <c r="K51" s="29"/>
-      <c r="L51" s="16"/>
-      <c r="M51" s="17"/>
-      <c r="N51" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="O51" s="39"/>
-      <c r="P51" s="48"/>
-      <c r="AB51" s="6" t="s">
-        <v>200</v>
-      </c>
-      <c r="AC51" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="AD51" s="49" t="s">
-        <v>32</v>
-      </c>
-      <c r="AE51" s="49"/>
-      <c r="AF51" s="24"/>
-      <c r="AG51" s="24"/>
-      <c r="AH51" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="AI51" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="AJ51" s="5"/>
-    </row>
-    <row r="52" spans="8:36" ht="17.25" thickBot="1">
-      <c r="AB52" s="6" t="s">
-        <v>237</v>
-      </c>
-      <c r="AC52" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="AD52" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="AE52" s="35"/>
-      <c r="AF52" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="AG52" s="35"/>
-      <c r="AH52" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="AI52" s="7"/>
-      <c r="AJ52" s="5"/>
+      <c r="H51" s="27"/>
+      <c r="I51" s="28"/>
+      <c r="J51" s="40"/>
+      <c r="K51" s="41"/>
+      <c r="L51" s="45"/>
+      <c r="M51" s="46"/>
+      <c r="N51" s="13"/>
+      <c r="O51" s="28"/>
+      <c r="P51" s="37"/>
+      <c r="AB51" s="57"/>
+      <c r="AC51" s="57"/>
+      <c r="AD51" s="54"/>
+      <c r="AE51" s="54"/>
+      <c r="AF51" s="56"/>
+      <c r="AG51" s="56"/>
+      <c r="AH51" s="58"/>
+      <c r="AI51" s="58"/>
+      <c r="AJ51" s="55"/>
+    </row>
+    <row r="52" spans="8:36">
+      <c r="AB52" s="57"/>
+      <c r="AC52" s="57"/>
+      <c r="AD52" s="57"/>
+      <c r="AE52" s="60"/>
+      <c r="AF52" s="57"/>
+      <c r="AG52" s="60"/>
+      <c r="AH52" s="59"/>
+      <c r="AI52" s="57"/>
+      <c r="AJ52" s="55"/>
     </row>
     <row r="53" spans="8:36">
-      <c r="H53" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="I53" s="25" t="s">
-        <v>158</v>
-      </c>
-      <c r="J53" s="26"/>
-      <c r="K53" s="26"/>
-      <c r="L53" s="26"/>
-      <c r="M53" s="26"/>
-      <c r="N53" s="26"/>
-      <c r="O53" s="26"/>
-      <c r="P53" s="27"/>
-      <c r="AB53" s="6" t="s">
-        <v>205</v>
-      </c>
-      <c r="AC53" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="AD53" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="AE53" s="35"/>
-      <c r="AF53" s="24"/>
-      <c r="AG53" s="24"/>
-      <c r="AH53" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="AI53" s="7"/>
-      <c r="AJ53" s="5"/>
+      <c r="H53" s="53"/>
+      <c r="I53" s="54"/>
+      <c r="J53" s="54"/>
+      <c r="K53" s="54"/>
+      <c r="L53" s="54"/>
+      <c r="M53" s="54"/>
+      <c r="N53" s="54"/>
+      <c r="O53" s="54"/>
+      <c r="P53" s="54"/>
+      <c r="AB53" s="57"/>
+      <c r="AC53" s="57"/>
+      <c r="AD53" s="57"/>
+      <c r="AE53" s="60"/>
+      <c r="AF53" s="56"/>
+      <c r="AG53" s="56"/>
+      <c r="AH53" s="59"/>
+      <c r="AI53" s="57"/>
+      <c r="AJ53" s="55"/>
     </row>
     <row r="54" spans="8:36">
-      <c r="H54" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I54" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="J54" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="K54" s="21"/>
-      <c r="L54" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="M54" s="21"/>
-      <c r="N54" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="O54" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="P54" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="AB54" s="6" t="s">
-        <v>209</v>
-      </c>
-      <c r="AC54" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="AD54" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="AE54" s="35"/>
-      <c r="AF54" s="24"/>
-      <c r="AG54" s="24"/>
-      <c r="AH54" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="AI54" s="7"/>
-      <c r="AJ54" s="5"/>
+      <c r="H54" s="55"/>
+      <c r="I54" s="55"/>
+      <c r="J54" s="56"/>
+      <c r="K54" s="56"/>
+      <c r="L54" s="56"/>
+      <c r="M54" s="56"/>
+      <c r="N54" s="55"/>
+      <c r="O54" s="55"/>
+      <c r="P54" s="55"/>
+      <c r="AB54" s="57"/>
+      <c r="AC54" s="57"/>
+      <c r="AD54" s="57"/>
+      <c r="AE54" s="60"/>
+      <c r="AF54" s="56"/>
+      <c r="AG54" s="56"/>
+      <c r="AH54" s="59"/>
+      <c r="AI54" s="57"/>
+      <c r="AJ54" s="55"/>
     </row>
     <row r="55" spans="8:36">
-      <c r="H55" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="I55" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="J55" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="K55" s="19"/>
-      <c r="L55" s="20"/>
-      <c r="M55" s="21"/>
-      <c r="N55" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="O55" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="P55" s="5"/>
-      <c r="AB55" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="AC55" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="AD55" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="AE55" s="19"/>
-      <c r="AF55" s="24"/>
-      <c r="AG55" s="24"/>
-      <c r="AH55" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="AI55" s="7"/>
-      <c r="AJ55" s="5"/>
-    </row>
-    <row r="56" spans="8:36" ht="17.25" thickBot="1">
-      <c r="H56" s="11" t="s">
-        <v>158</v>
-      </c>
-      <c r="I56" s="12" t="s">
-        <v>241</v>
-      </c>
-      <c r="J56" s="28" t="s">
-        <v>81</v>
-      </c>
-      <c r="K56" s="29"/>
-      <c r="L56" s="16"/>
-      <c r="M56" s="17"/>
-      <c r="N56" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="O56" s="12"/>
-      <c r="P56" s="14"/>
-      <c r="AB56" s="6" t="s">
-        <v>183</v>
-      </c>
-      <c r="AC56" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="AD56" s="49" t="s">
-        <v>32</v>
-      </c>
-      <c r="AE56" s="49"/>
-      <c r="AF56" s="24"/>
-      <c r="AG56" s="24"/>
-      <c r="AH56" s="9">
-        <v>0</v>
-      </c>
-      <c r="AI56" s="7"/>
-      <c r="AJ56" s="5"/>
+      <c r="H55" s="57"/>
+      <c r="I55" s="57"/>
+      <c r="J55" s="54"/>
+      <c r="K55" s="54"/>
+      <c r="L55" s="56"/>
+      <c r="M55" s="56"/>
+      <c r="N55" s="58"/>
+      <c r="O55" s="58"/>
+      <c r="P55" s="55"/>
+      <c r="AB55" s="57"/>
+      <c r="AC55" s="57"/>
+      <c r="AD55" s="54"/>
+      <c r="AE55" s="54"/>
+      <c r="AF55" s="56"/>
+      <c r="AG55" s="56"/>
+      <c r="AH55" s="59"/>
+      <c r="AI55" s="57"/>
+      <c r="AJ55" s="55"/>
+    </row>
+    <row r="56" spans="8:36">
+      <c r="H56" s="57"/>
+      <c r="I56" s="57"/>
+      <c r="J56" s="54"/>
+      <c r="K56" s="54"/>
+      <c r="L56" s="56"/>
+      <c r="M56" s="56"/>
+      <c r="N56" s="59"/>
+      <c r="O56" s="57"/>
+      <c r="P56" s="55"/>
+      <c r="AB56" s="57"/>
+      <c r="AC56" s="57"/>
+      <c r="AD56" s="54"/>
+      <c r="AE56" s="54"/>
+      <c r="AF56" s="56"/>
+      <c r="AG56" s="56"/>
+      <c r="AH56" s="59"/>
+      <c r="AI56" s="57"/>
+      <c r="AJ56" s="55"/>
     </row>
     <row r="57" spans="8:36">
-      <c r="AB57" s="6" t="s">
-        <v>242</v>
-      </c>
-      <c r="AC57" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="AD57" s="49" t="s">
-        <v>32</v>
-      </c>
-      <c r="AE57" s="49"/>
-      <c r="AF57" s="18" t="s">
-        <v>244</v>
-      </c>
-      <c r="AG57" s="19"/>
-      <c r="AH57" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="AI57" s="7"/>
-      <c r="AJ57" s="5"/>
+      <c r="AB57" s="57"/>
+      <c r="AC57" s="57"/>
+      <c r="AD57" s="54"/>
+      <c r="AE57" s="54"/>
+      <c r="AF57" s="54"/>
+      <c r="AG57" s="54"/>
+      <c r="AH57" s="59"/>
+      <c r="AI57" s="57"/>
+      <c r="AJ57" s="55"/>
     </row>
     <row r="58" spans="8:36">
-      <c r="AB58" s="6" t="s">
-        <v>245</v>
-      </c>
-      <c r="AC58" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="AD58" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="AE58" s="35"/>
-      <c r="AF58" s="18" t="s">
-        <v>244</v>
-      </c>
-      <c r="AG58" s="19"/>
-      <c r="AH58" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="AI58" s="7"/>
-      <c r="AJ58" s="5"/>
-    </row>
-    <row r="59" spans="8:36" ht="17.25" thickBot="1">
-      <c r="AB59" s="11" t="s">
-        <v>247</v>
-      </c>
-      <c r="AC59" s="12" t="s">
-        <v>248</v>
-      </c>
-      <c r="AD59" s="50" t="s">
-        <v>32</v>
-      </c>
-      <c r="AE59" s="50"/>
-      <c r="AF59" s="28" t="s">
-        <v>244</v>
-      </c>
-      <c r="AG59" s="29"/>
-      <c r="AH59" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="AI59" s="12"/>
-      <c r="AJ59" s="14"/>
+      <c r="AB58" s="57"/>
+      <c r="AC58" s="57"/>
+      <c r="AD58" s="57"/>
+      <c r="AE58" s="60"/>
+      <c r="AF58" s="54"/>
+      <c r="AG58" s="54"/>
+      <c r="AH58" s="59"/>
+      <c r="AI58" s="57"/>
+      <c r="AJ58" s="55"/>
+    </row>
+    <row r="59" spans="8:36">
+      <c r="AB59" s="57"/>
+      <c r="AC59" s="57"/>
+      <c r="AD59" s="54"/>
+      <c r="AE59" s="54"/>
+      <c r="AF59" s="54"/>
+      <c r="AG59" s="54"/>
+      <c r="AH59" s="59"/>
+      <c r="AI59" s="57"/>
+      <c r="AJ59" s="55"/>
     </row>
   </sheetData>
-  <mergeCells count="260">
-    <mergeCell ref="AD57:AE57"/>
-    <mergeCell ref="AF57:AG57"/>
-    <mergeCell ref="AF58:AG58"/>
-    <mergeCell ref="AD59:AE59"/>
-    <mergeCell ref="AF59:AG59"/>
-    <mergeCell ref="J55:K55"/>
-    <mergeCell ref="L55:M55"/>
-    <mergeCell ref="AD55:AE55"/>
-    <mergeCell ref="AF55:AG55"/>
-    <mergeCell ref="J56:K56"/>
-    <mergeCell ref="L56:M56"/>
-    <mergeCell ref="AD56:AE56"/>
-    <mergeCell ref="AF56:AG56"/>
-    <mergeCell ref="I53:P53"/>
-    <mergeCell ref="AF53:AG53"/>
-    <mergeCell ref="J54:K54"/>
-    <mergeCell ref="L54:M54"/>
-    <mergeCell ref="AF54:AG54"/>
-    <mergeCell ref="L50:M50"/>
-    <mergeCell ref="AD50:AE50"/>
-    <mergeCell ref="AF50:AG50"/>
-    <mergeCell ref="J51:K51"/>
-    <mergeCell ref="L51:M51"/>
-    <mergeCell ref="AD51:AE51"/>
-    <mergeCell ref="AF51:AG51"/>
-    <mergeCell ref="L47:M47"/>
-    <mergeCell ref="AD47:AE47"/>
-    <mergeCell ref="AF47:AG47"/>
-    <mergeCell ref="L48:M48"/>
-    <mergeCell ref="L49:M49"/>
-    <mergeCell ref="AC49:AJ49"/>
-    <mergeCell ref="L45:M45"/>
-    <mergeCell ref="T45:U45"/>
-    <mergeCell ref="V45:W45"/>
-    <mergeCell ref="L46:M46"/>
-    <mergeCell ref="AF46:AG46"/>
-    <mergeCell ref="L43:M43"/>
-    <mergeCell ref="T43:U43"/>
-    <mergeCell ref="V43:W43"/>
-    <mergeCell ref="AD43:AE43"/>
-    <mergeCell ref="L44:M44"/>
-    <mergeCell ref="T44:U44"/>
-    <mergeCell ref="V44:W44"/>
-    <mergeCell ref="L42:M42"/>
-    <mergeCell ref="T42:U42"/>
-    <mergeCell ref="V42:W42"/>
-    <mergeCell ref="AD42:AE42"/>
-    <mergeCell ref="AF42:AG42"/>
-    <mergeCell ref="AF40:AG40"/>
-    <mergeCell ref="L41:M41"/>
-    <mergeCell ref="T41:U41"/>
-    <mergeCell ref="V41:W41"/>
-    <mergeCell ref="AD41:AE41"/>
-    <mergeCell ref="AF41:AG41"/>
-    <mergeCell ref="L39:M39"/>
-    <mergeCell ref="T39:U39"/>
-    <mergeCell ref="V39:W39"/>
-    <mergeCell ref="L40:M40"/>
-    <mergeCell ref="T40:U40"/>
-    <mergeCell ref="V40:W40"/>
-    <mergeCell ref="L38:M38"/>
-    <mergeCell ref="T38:U38"/>
-    <mergeCell ref="V38:W38"/>
-    <mergeCell ref="AD38:AE38"/>
-    <mergeCell ref="AF38:AG38"/>
-    <mergeCell ref="L37:M37"/>
-    <mergeCell ref="T37:U37"/>
-    <mergeCell ref="V37:W37"/>
-    <mergeCell ref="AD37:AE37"/>
-    <mergeCell ref="AF37:AG37"/>
-    <mergeCell ref="L34:M34"/>
-    <mergeCell ref="L35:M35"/>
-    <mergeCell ref="S35:Z35"/>
-    <mergeCell ref="AC35:AJ35"/>
-    <mergeCell ref="L36:M36"/>
-    <mergeCell ref="T36:U36"/>
-    <mergeCell ref="V36:W36"/>
-    <mergeCell ref="AD36:AE36"/>
-    <mergeCell ref="AF36:AG36"/>
-    <mergeCell ref="J32:K32"/>
-    <mergeCell ref="L32:M32"/>
-    <mergeCell ref="V32:W32"/>
-    <mergeCell ref="L33:M33"/>
-    <mergeCell ref="T33:U33"/>
-    <mergeCell ref="V33:W33"/>
-    <mergeCell ref="J30:K30"/>
-    <mergeCell ref="L30:M30"/>
-    <mergeCell ref="T30:U30"/>
-    <mergeCell ref="V30:W30"/>
-    <mergeCell ref="J31:K31"/>
-    <mergeCell ref="L31:M31"/>
-    <mergeCell ref="T31:U31"/>
-    <mergeCell ref="V31:W31"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="L28:M28"/>
-    <mergeCell ref="S28:Z28"/>
-    <mergeCell ref="J29:K29"/>
-    <mergeCell ref="L29:M29"/>
-    <mergeCell ref="T29:U29"/>
-    <mergeCell ref="V29:W29"/>
-    <mergeCell ref="AF26:AG26"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="L27:M27"/>
-    <mergeCell ref="AD27:AE27"/>
-    <mergeCell ref="AF27:AG27"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="L26:M26"/>
-    <mergeCell ref="T26:U26"/>
-    <mergeCell ref="V26:W26"/>
-    <mergeCell ref="AD26:AE26"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="L25:M25"/>
-    <mergeCell ref="V25:W25"/>
-    <mergeCell ref="AD25:AE25"/>
-    <mergeCell ref="AF25:AG25"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="L23:M23"/>
-    <mergeCell ref="V23:W23"/>
-    <mergeCell ref="AF23:AG23"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="L24:M24"/>
-    <mergeCell ref="V24:W24"/>
-    <mergeCell ref="AD24:AE24"/>
-    <mergeCell ref="AF24:AG24"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="T21:U21"/>
-    <mergeCell ref="V21:W21"/>
-    <mergeCell ref="AF21:AG21"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="L22:M22"/>
-    <mergeCell ref="T22:U22"/>
-    <mergeCell ref="V22:W22"/>
-    <mergeCell ref="AF22:AG22"/>
-    <mergeCell ref="AF19:AG19"/>
-    <mergeCell ref="L20:M20"/>
-    <mergeCell ref="T20:U20"/>
-    <mergeCell ref="V20:W20"/>
-    <mergeCell ref="AD20:AE20"/>
-    <mergeCell ref="AF20:AG20"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="T19:U19"/>
-    <mergeCell ref="V19:W19"/>
-    <mergeCell ref="AD19:AE19"/>
-    <mergeCell ref="I17:P17"/>
-    <mergeCell ref="V17:W17"/>
-    <mergeCell ref="AF17:AG17"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="T18:U18"/>
-    <mergeCell ref="V18:W18"/>
-    <mergeCell ref="AF18:AG18"/>
-    <mergeCell ref="V15:W15"/>
-    <mergeCell ref="AF15:AG15"/>
-    <mergeCell ref="T16:U16"/>
-    <mergeCell ref="V16:W16"/>
-    <mergeCell ref="AF16:AG16"/>
-    <mergeCell ref="T13:U13"/>
-    <mergeCell ref="V13:W13"/>
-    <mergeCell ref="AD13:AE13"/>
-    <mergeCell ref="AF13:AG13"/>
-    <mergeCell ref="T14:U14"/>
-    <mergeCell ref="V14:W14"/>
-    <mergeCell ref="AD14:AE14"/>
-    <mergeCell ref="AF14:AG14"/>
-    <mergeCell ref="AD11:AE11"/>
-    <mergeCell ref="AF11:AG11"/>
-    <mergeCell ref="S12:Z12"/>
-    <mergeCell ref="AD12:AE12"/>
-    <mergeCell ref="AF12:AG12"/>
-    <mergeCell ref="T9:U9"/>
-    <mergeCell ref="V9:W9"/>
-    <mergeCell ref="AD9:AE9"/>
-    <mergeCell ref="AF9:AG9"/>
-    <mergeCell ref="T10:U10"/>
-    <mergeCell ref="V10:W10"/>
-    <mergeCell ref="AD10:AE10"/>
-    <mergeCell ref="AF10:AG10"/>
-    <mergeCell ref="T7:U7"/>
-    <mergeCell ref="V7:W7"/>
-    <mergeCell ref="AD7:AE7"/>
-    <mergeCell ref="AF7:AG7"/>
-    <mergeCell ref="T8:U8"/>
-    <mergeCell ref="V8:W8"/>
-    <mergeCell ref="AD8:AE8"/>
-    <mergeCell ref="AF8:AG8"/>
-    <mergeCell ref="AD5:AE5"/>
-    <mergeCell ref="AF5:AG5"/>
-    <mergeCell ref="S6:Z6"/>
-    <mergeCell ref="AD6:AE6"/>
-    <mergeCell ref="AF6:AG6"/>
-    <mergeCell ref="T3:U3"/>
-    <mergeCell ref="V3:W3"/>
-    <mergeCell ref="AD3:AE3"/>
-    <mergeCell ref="AF3:AG3"/>
-    <mergeCell ref="T4:U4"/>
-    <mergeCell ref="V4:W4"/>
-    <mergeCell ref="AF4:AG4"/>
-    <mergeCell ref="S1:Z1"/>
-    <mergeCell ref="AC1:AJ1"/>
-    <mergeCell ref="T2:U2"/>
-    <mergeCell ref="V2:W2"/>
-    <mergeCell ref="AD2:AE2"/>
-    <mergeCell ref="AF2:AG2"/>
-    <mergeCell ref="A1:C2"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="I1:P1"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
+  <mergeCells count="235">
+    <mergeCell ref="AF43:AG43"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="L11:M11"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="L3:M3"/>
@@ -4885,35 +4326,189 @@
     <mergeCell ref="E7:F7"/>
     <mergeCell ref="J7:K7"/>
     <mergeCell ref="L7:M7"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="S1:Z1"/>
+    <mergeCell ref="AC1:AJ1"/>
+    <mergeCell ref="T2:U2"/>
+    <mergeCell ref="V2:W2"/>
+    <mergeCell ref="AD2:AE2"/>
+    <mergeCell ref="AF2:AG2"/>
+    <mergeCell ref="A1:C2"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="I1:P1"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="AD5:AE5"/>
+    <mergeCell ref="AF5:AG5"/>
+    <mergeCell ref="S6:Z6"/>
+    <mergeCell ref="AD6:AE6"/>
+    <mergeCell ref="AF6:AG6"/>
+    <mergeCell ref="T3:U3"/>
+    <mergeCell ref="V3:W3"/>
+    <mergeCell ref="AD3:AE3"/>
+    <mergeCell ref="AF3:AG3"/>
+    <mergeCell ref="T4:U4"/>
+    <mergeCell ref="V4:W4"/>
+    <mergeCell ref="AF4:AG4"/>
+    <mergeCell ref="T9:U9"/>
+    <mergeCell ref="V9:W9"/>
+    <mergeCell ref="T10:U10"/>
+    <mergeCell ref="V10:W10"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="V7:W7"/>
+    <mergeCell ref="AD7:AE7"/>
+    <mergeCell ref="AF7:AG7"/>
+    <mergeCell ref="T8:U8"/>
+    <mergeCell ref="V8:W8"/>
+    <mergeCell ref="AD8:AE8"/>
+    <mergeCell ref="AF8:AG8"/>
+    <mergeCell ref="T13:U13"/>
+    <mergeCell ref="V13:W13"/>
+    <mergeCell ref="T14:U14"/>
+    <mergeCell ref="V14:W14"/>
+    <mergeCell ref="S12:Z12"/>
+    <mergeCell ref="I17:P17"/>
+    <mergeCell ref="V17:W17"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="T18:U18"/>
+    <mergeCell ref="V18:W18"/>
+    <mergeCell ref="V15:W15"/>
+    <mergeCell ref="T16:U16"/>
+    <mergeCell ref="V16:W16"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="T20:U20"/>
+    <mergeCell ref="V20:W20"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="T19:U19"/>
+    <mergeCell ref="V19:W19"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="T21:U21"/>
+    <mergeCell ref="V21:W21"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="T22:U22"/>
+    <mergeCell ref="V22:W22"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="V25:W25"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="V23:W23"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="V24:W24"/>
+    <mergeCell ref="T24:U24"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="S28:Z28"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="T29:U29"/>
+    <mergeCell ref="V29:W29"/>
+    <mergeCell ref="AF26:AG26"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="AD27:AE27"/>
+    <mergeCell ref="AF27:AG27"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="T26:U26"/>
+    <mergeCell ref="V26:W26"/>
+    <mergeCell ref="AD26:AE26"/>
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="V32:W32"/>
+    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="T33:U33"/>
+    <mergeCell ref="V33:W33"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="T30:U30"/>
+    <mergeCell ref="V30:W30"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="L31:M31"/>
+    <mergeCell ref="T31:U31"/>
+    <mergeCell ref="V31:W31"/>
+    <mergeCell ref="L34:M34"/>
+    <mergeCell ref="L35:M35"/>
+    <mergeCell ref="S35:Z35"/>
+    <mergeCell ref="AC35:AJ35"/>
+    <mergeCell ref="L36:M36"/>
+    <mergeCell ref="T36:U36"/>
+    <mergeCell ref="V36:W36"/>
+    <mergeCell ref="AD36:AE36"/>
+    <mergeCell ref="AF36:AG36"/>
+    <mergeCell ref="L38:M38"/>
+    <mergeCell ref="T38:U38"/>
+    <mergeCell ref="V38:W38"/>
+    <mergeCell ref="AD38:AE38"/>
+    <mergeCell ref="AF38:AG38"/>
+    <mergeCell ref="L37:M37"/>
+    <mergeCell ref="T37:U37"/>
+    <mergeCell ref="V37:W37"/>
+    <mergeCell ref="AD37:AE37"/>
+    <mergeCell ref="AF37:AG37"/>
+    <mergeCell ref="AF42:AG42"/>
+    <mergeCell ref="AF40:AG40"/>
+    <mergeCell ref="L41:M41"/>
+    <mergeCell ref="T41:U41"/>
+    <mergeCell ref="V41:W41"/>
+    <mergeCell ref="AD41:AE41"/>
+    <mergeCell ref="AF41:AG41"/>
+    <mergeCell ref="L39:M39"/>
+    <mergeCell ref="T39:U39"/>
+    <mergeCell ref="V39:W39"/>
+    <mergeCell ref="L40:M40"/>
+    <mergeCell ref="T40:U40"/>
+    <mergeCell ref="V40:W40"/>
+    <mergeCell ref="L43:M43"/>
+    <mergeCell ref="T43:U43"/>
+    <mergeCell ref="V43:W43"/>
+    <mergeCell ref="AD43:AE43"/>
+    <mergeCell ref="L44:M44"/>
+    <mergeCell ref="T44:U44"/>
+    <mergeCell ref="V44:W44"/>
+    <mergeCell ref="L42:M42"/>
+    <mergeCell ref="T42:U42"/>
+    <mergeCell ref="V42:W42"/>
+    <mergeCell ref="L47:M47"/>
+    <mergeCell ref="AD47:AE47"/>
+    <mergeCell ref="AF47:AG47"/>
+    <mergeCell ref="L48:M48"/>
+    <mergeCell ref="L49:M49"/>
+    <mergeCell ref="AC49:AJ49"/>
+    <mergeCell ref="L45:M45"/>
+    <mergeCell ref="T45:U45"/>
+    <mergeCell ref="V45:W45"/>
+    <mergeCell ref="L46:M46"/>
+    <mergeCell ref="AF46:AG46"/>
+    <mergeCell ref="I53:P53"/>
+    <mergeCell ref="AF53:AG53"/>
+    <mergeCell ref="J54:K54"/>
+    <mergeCell ref="L54:M54"/>
+    <mergeCell ref="AF54:AG54"/>
+    <mergeCell ref="L50:M50"/>
+    <mergeCell ref="AD50:AE50"/>
+    <mergeCell ref="AF50:AG50"/>
+    <mergeCell ref="J51:K51"/>
+    <mergeCell ref="L51:M51"/>
+    <mergeCell ref="AD51:AE51"/>
+    <mergeCell ref="AF51:AG51"/>
+    <mergeCell ref="AD57:AE57"/>
+    <mergeCell ref="AF57:AG57"/>
+    <mergeCell ref="AF58:AG58"/>
+    <mergeCell ref="AD59:AE59"/>
+    <mergeCell ref="AF59:AG59"/>
+    <mergeCell ref="J55:K55"/>
+    <mergeCell ref="L55:M55"/>
+    <mergeCell ref="AD55:AE55"/>
+    <mergeCell ref="AF55:AG55"/>
+    <mergeCell ref="J56:K56"/>
+    <mergeCell ref="L56:M56"/>
+    <mergeCell ref="AD56:AE56"/>
+    <mergeCell ref="AF56:AG56"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
